--- a/perguntas.xlsx
+++ b/perguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\perguntas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087A4340-3D49-4DF3-AC64-8A3DFBCEFCC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22635A4-4FC9-4BD0-8A60-0D47C0BD6136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{42F07258-CA02-475C-954F-3907A6AF603F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="157">
   <si>
     <t>Empresa</t>
   </si>
@@ -57,59 +57,461 @@
     <t>Resposta Errada 3</t>
   </si>
   <si>
-    <t>Pergunta 1</t>
-  </si>
-  <si>
-    <t>Pergunta 2</t>
-  </si>
-  <si>
-    <t>Pergunta 3</t>
-  </si>
-  <si>
-    <t>Pergunta 4</t>
-  </si>
-  <si>
-    <t>Pergunta 5</t>
-  </si>
-  <si>
-    <t>Pergunta 6</t>
-  </si>
-  <si>
-    <t>Resposta Correta 1</t>
-  </si>
-  <si>
-    <t>Resposta Correta 2</t>
-  </si>
-  <si>
-    <t>Resposta Correta 3</t>
-  </si>
-  <si>
-    <t>Resposta Correta 4</t>
-  </si>
-  <si>
-    <t>Resposta Correta 5</t>
-  </si>
-  <si>
-    <t>Resposta Correta 6</t>
-  </si>
-  <si>
-    <t>KB123456</t>
-  </si>
-  <si>
-    <t>KB654321</t>
-  </si>
-  <si>
-    <t>Empresa 1</t>
-  </si>
-  <si>
-    <t>Empresa 2</t>
+    <t>Tech Solutions</t>
+  </si>
+  <si>
+    <t>Qual é o objetivo principal do service desk?</t>
+  </si>
+  <si>
+    <t>Resolver problemas dos usuários</t>
+  </si>
+  <si>
+    <t>Aumentar vendas</t>
+  </si>
+  <si>
+    <t>Reduzir custos</t>
+  </si>
+  <si>
+    <t>Gerenciar projetos</t>
+  </si>
+  <si>
+    <t>TS001</t>
+  </si>
+  <si>
+    <t>O que significa SLA em um contrato de service desk?</t>
+  </si>
+  <si>
+    <t>Acordo de Nível de Serviço</t>
+  </si>
+  <si>
+    <t>Sistema de Login Acessível</t>
+  </si>
+  <si>
+    <t>Análise de Liderança Avançada</t>
+  </si>
+  <si>
+    <t>Avaliação de Lucratividade</t>
+  </si>
+  <si>
+    <t>TS002</t>
+  </si>
+  <si>
+    <t>Qual é a primeira etapa do processo de ticket no service desk?</t>
+  </si>
+  <si>
+    <t>Registro do Incidente</t>
+  </si>
+  <si>
+    <t>Resolução do Problema</t>
+  </si>
+  <si>
+    <t>Fechamento do Ticket</t>
+  </si>
+  <si>
+    <t>Escalonamento do Incidente</t>
+  </si>
+  <si>
+    <t>TS003</t>
+  </si>
+  <si>
+    <t>O que deve ser incluído em um ticket de service desk?</t>
+  </si>
+  <si>
+    <t>Descrição do Problema</t>
+  </si>
+  <si>
+    <t>Histórico de Vendas</t>
+  </si>
+  <si>
+    <t>Detalhes Pessoais</t>
+  </si>
+  <si>
+    <t>Requisitos de Projeto</t>
+  </si>
+  <si>
+    <t>TS004</t>
+  </si>
+  <si>
+    <t>Como um service desk deve priorizar os tickets?</t>
+  </si>
+  <si>
+    <t>Com base na urgência e impacto</t>
+  </si>
+  <si>
+    <t>Com base na data de recebimento</t>
+  </si>
+  <si>
+    <t>Por ordem alfabética</t>
+  </si>
+  <si>
+    <t>Aleatoriamente</t>
+  </si>
+  <si>
+    <t>TS005</t>
+  </si>
+  <si>
+    <t>Global IT</t>
+  </si>
+  <si>
+    <t>O que é um incidente no contexto do service desk?</t>
+  </si>
+  <si>
+    <t>Interrupção normal dos serviços</t>
+  </si>
+  <si>
+    <t>Uma atualização de software</t>
+  </si>
+  <si>
+    <t>Um plano de treinamento</t>
+  </si>
+  <si>
+    <t>Um relatório financeiro</t>
+  </si>
+  <si>
+    <t>GI001</t>
+  </si>
+  <si>
+    <t>Qual é a ferramenta comum usada para gerenciar tickets?</t>
+  </si>
+  <si>
+    <t>Sistema de Gerenciamento de Tickets</t>
+  </si>
+  <si>
+    <t>Planilha Excel</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>Software de Contabilidade</t>
+  </si>
+  <si>
+    <t>GI002</t>
+  </si>
+  <si>
+    <t>Qual é a função principal do service desk?</t>
+  </si>
+  <si>
+    <t>Suporte e resolução de problemas</t>
+  </si>
+  <si>
+    <t>Vendas de Produtos</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de Software</t>
+  </si>
+  <si>
+    <t>Consultoria Estratégica</t>
+  </si>
+  <si>
+    <t>GI003</t>
+  </si>
+  <si>
+    <t>O que deve ser feito após a resolução de um ticket?</t>
+  </si>
+  <si>
+    <t>Fechar o ticket e documentar</t>
+  </si>
+  <si>
+    <t>Ignorar e passar para o próximo</t>
+  </si>
+  <si>
+    <t>Atualizar o status regularmente</t>
+  </si>
+  <si>
+    <t>Reabrir o ticket</t>
+  </si>
+  <si>
+    <t>GI004</t>
+  </si>
+  <si>
+    <t>Qual é a importância dos SLAs para o service desk?</t>
+  </si>
+  <si>
+    <t>Garantir um padrão de serviço</t>
+  </si>
+  <si>
+    <t>Aumentar os lucros</t>
+  </si>
+  <si>
+    <t>Reduzir a carga de trabalho</t>
+  </si>
+  <si>
+    <t>Facilitar a comunicação interna</t>
+  </si>
+  <si>
+    <t>GI005</t>
+  </si>
+  <si>
+    <t>NextGen Systems</t>
+  </si>
+  <si>
+    <t>Qual é a principal função de um service desk?</t>
+  </si>
+  <si>
+    <t>Resolver problemas técnicos</t>
+  </si>
+  <si>
+    <t>Criar estratégias de marketing</t>
+  </si>
+  <si>
+    <t>Realizar pesquisas de mercado</t>
+  </si>
+  <si>
+    <t>Desenvolver novos produtos</t>
+  </si>
+  <si>
+    <t>NG001</t>
+  </si>
+  <si>
+    <t>O que é uma base de conhecimento em um service desk?</t>
+  </si>
+  <si>
+    <t>Repositório de soluções conhecidas</t>
+  </si>
+  <si>
+    <t>Ferramenta de Comunicação</t>
+  </si>
+  <si>
+    <t>Aplicativo de Gerenciamento</t>
+  </si>
+  <si>
+    <t>Software de Desenvolvimento</t>
+  </si>
+  <si>
+    <t>NG002</t>
+  </si>
+  <si>
+    <t>O que significa escalonamento em um service desk?</t>
+  </si>
+  <si>
+    <t>Transferir o ticket para níveis superiores</t>
+  </si>
+  <si>
+    <t>Resolver problemas de baixa prioridade</t>
+  </si>
+  <si>
+    <t>Documentar o incidente</t>
+  </si>
+  <si>
+    <t>Encerrar o ticket imediatamente</t>
+  </si>
+  <si>
+    <t>NG003</t>
+  </si>
+  <si>
+    <t>Como um service desk deve lidar com um problema recorrente?</t>
+  </si>
+  <si>
+    <t>Identificar e resolver a causa raiz</t>
+  </si>
+  <si>
+    <t>Ignorar o problema</t>
+  </si>
+  <si>
+    <t>Reabrir o ticket repetidamente</t>
+  </si>
+  <si>
+    <t>Reduzir a prioridade</t>
+  </si>
+  <si>
+    <t>NG004</t>
+  </si>
+  <si>
+    <t>O que deve ser feito se um ticket não puder ser resolvido no prazo?</t>
+  </si>
+  <si>
+    <t>Informar o cliente e escalar</t>
+  </si>
+  <si>
+    <t>Ignorar e deixar para depois</t>
+  </si>
+  <si>
+    <t>Encerrar o ticket</t>
+  </si>
+  <si>
+    <t>Reabrir o ticket automaticamente</t>
+  </si>
+  <si>
+    <t>NG005</t>
+  </si>
+  <si>
+    <t>Quantum Tech</t>
+  </si>
+  <si>
+    <t>O que é uma categoria de ticket em um service desk?</t>
+  </si>
+  <si>
+    <t>Classificação de tipos de problemas</t>
+  </si>
+  <si>
+    <t>Tipo de software</t>
+  </si>
+  <si>
+    <t>Nome do usuário</t>
+  </si>
+  <si>
+    <t>Localização do problema</t>
+  </si>
+  <si>
+    <t>QT001</t>
+  </si>
+  <si>
+    <t>Qual é a função da equipe de suporte de nível 1?</t>
+  </si>
+  <si>
+    <t>Resolver problemas comuns</t>
+  </si>
+  <si>
+    <t>Desenvolver software</t>
+  </si>
+  <si>
+    <t>Criar novas políticas</t>
+  </si>
+  <si>
+    <t>QT002</t>
+  </si>
+  <si>
+    <t>O que deve ser incluído em um relatório de incidentes?</t>
+  </si>
+  <si>
+    <t>Detalhes do problema e solução</t>
+  </si>
+  <si>
+    <t>Apenas a data de recebimento</t>
+  </si>
+  <si>
+    <t>Apenas o nome do usuário</t>
+  </si>
+  <si>
+    <t>O status do ticket somente</t>
+  </si>
+  <si>
+    <t>QT003</t>
+  </si>
+  <si>
+    <t>Como é feita a gestão de mudanças no service desk?</t>
+  </si>
+  <si>
+    <t>Documentar e avaliar o impacto</t>
+  </si>
+  <si>
+    <t>Ignorar mudanças</t>
+  </si>
+  <si>
+    <t>Implementar imediatamente</t>
+  </si>
+  <si>
+    <t>Adiar mudanças indefinidamente</t>
+  </si>
+  <si>
+    <t>QT004</t>
+  </si>
+  <si>
+    <t>Qual é a importância da documentação de processos?</t>
+  </si>
+  <si>
+    <t>Garantir consistência e referência</t>
+  </si>
+  <si>
+    <t>Aumentar a complexidade</t>
+  </si>
+  <si>
+    <t>Melhorar a velocidade de resposta</t>
+  </si>
+  <si>
+    <t>QT005</t>
+  </si>
+  <si>
+    <t>SecureNet</t>
+  </si>
+  <si>
+    <t>O que deve ser feito se um usuário solicita uma alteração no serviço?</t>
+  </si>
+  <si>
+    <t>Avaliar e processar a solicitação</t>
+  </si>
+  <si>
+    <t>Ignorar a solicitação</t>
+  </si>
+  <si>
+    <t>Transferir para outro departamento</t>
+  </si>
+  <si>
+    <t>SN001</t>
+  </si>
+  <si>
+    <t>O que é um acordo de nível de serviço (SLA)?</t>
+  </si>
+  <si>
+    <t>Compromisso de serviço entre fornecedor e cliente</t>
+  </si>
+  <si>
+    <t>Documento de Requisitos</t>
+  </si>
+  <si>
+    <t>Termo de Confidencialidade</t>
+  </si>
+  <si>
+    <t>Política de Reembolso</t>
+  </si>
+  <si>
+    <t>SN002</t>
+  </si>
+  <si>
+    <t>Qual é a função do processo de gestão de incidentes?</t>
+  </si>
+  <si>
+    <t>Restaurar o serviço normal</t>
+  </si>
+  <si>
+    <t>Gerenciar recursos financeiros</t>
+  </si>
+  <si>
+    <t>SN003</t>
+  </si>
+  <si>
+    <t>Como o service desk deve lidar com feedback de clientes?</t>
+  </si>
+  <si>
+    <t>Avaliar e implementar melhorias</t>
+  </si>
+  <si>
+    <t>Ignorar feedback</t>
+  </si>
+  <si>
+    <t>Agradecer e encerrar</t>
+  </si>
+  <si>
+    <t>Processar de forma superficial</t>
+  </si>
+  <si>
+    <t>SN004</t>
+  </si>
+  <si>
+    <t>O que é um plano de continuidade de serviços?</t>
+  </si>
+  <si>
+    <t>Plano para manter serviços durante incidentes</t>
+  </si>
+  <si>
+    <t>Documento de Políticas</t>
+  </si>
+  <si>
+    <t>Relatório de Desempenho</t>
+  </si>
+  <si>
+    <t>Estrutura de Suporte</t>
+  </si>
+  <si>
+    <t>SN005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +527,14 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -152,9 +562,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,183 +887,624 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A3FCA2-66BC-4607-AD30-1EED3AA5681B}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
+      <c r="F24" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/perguntas.xlsx
+++ b/perguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\perguntas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22635A4-4FC9-4BD0-8A60-0D47C0BD6136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F53347-BB53-418A-A02D-88126BBE17D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{42F07258-CA02-475C-954F-3907A6AF603F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="425">
   <si>
     <t>Empresa</t>
   </si>
@@ -505,6 +505,810 @@
   </si>
   <si>
     <t>SN005</t>
+  </si>
+  <si>
+    <t>O que é um "procedimento padrão" em um service desk?</t>
+  </si>
+  <si>
+    <t>Um processo definido para a resolução de problemas</t>
+  </si>
+  <si>
+    <t>Um documento de política</t>
+  </si>
+  <si>
+    <t>Uma lista de verificação</t>
+  </si>
+  <si>
+    <t>TS011</t>
+  </si>
+  <si>
+    <t>Como um service desk deve lidar com tickets duplicados?</t>
+  </si>
+  <si>
+    <t>Consolidar e resolver em um único ticket</t>
+  </si>
+  <si>
+    <t>Ignorar um dos tickets</t>
+  </si>
+  <si>
+    <t>Fechar ambos tickets</t>
+  </si>
+  <si>
+    <t>Priorizar aleatoriamente</t>
+  </si>
+  <si>
+    <t>GI011</t>
+  </si>
+  <si>
+    <t>O que significa "tempo de resolução" em um SLA?</t>
+  </si>
+  <si>
+    <t>Tempo total para resolver um problema</t>
+  </si>
+  <si>
+    <t>Tempo para iniciar a resolução</t>
+  </si>
+  <si>
+    <t>Tempo para resposta do cliente</t>
+  </si>
+  <si>
+    <t>Tempo para fechamento do ticket</t>
+  </si>
+  <si>
+    <t>NG016</t>
+  </si>
+  <si>
+    <t>O que é uma "solução permanente" em um processo de service desk?</t>
+  </si>
+  <si>
+    <t>Solução definitiva para um problema</t>
+  </si>
+  <si>
+    <t>Solução temporária</t>
+  </si>
+  <si>
+    <t>Solução que fecha o ticket</t>
+  </si>
+  <si>
+    <t>Solução que requer revisões</t>
+  </si>
+  <si>
+    <t>QT011</t>
+  </si>
+  <si>
+    <t>O que é uma "solicitação de serviço" em um service desk?</t>
+  </si>
+  <si>
+    <t>Pedido formal para um novo serviço ou recurso</t>
+  </si>
+  <si>
+    <t>Um problema técnico</t>
+  </si>
+  <si>
+    <t>Um incidente crítico</t>
+  </si>
+  <si>
+    <t>Uma reclamação de cliente</t>
+  </si>
+  <si>
+    <t>SN011</t>
+  </si>
+  <si>
+    <t>O que é um SLA?</t>
+  </si>
+  <si>
+    <t>TS012</t>
+  </si>
+  <si>
+    <t>Como um service desk deve tratar uma reclamação de cliente?</t>
+  </si>
+  <si>
+    <t>Ouvir e resolver o problema</t>
+  </si>
+  <si>
+    <t>Ignorar a reclamação</t>
+  </si>
+  <si>
+    <t>Fechar o ticket sem resposta</t>
+  </si>
+  <si>
+    <t>TS013</t>
+  </si>
+  <si>
+    <t>Qual é o objetivo do processo de escalonamento?</t>
+  </si>
+  <si>
+    <t>Resolver problemas em níveis superiores</t>
+  </si>
+  <si>
+    <t>Ignorar problemas</t>
+  </si>
+  <si>
+    <t>Fechar tickets rapidamente</t>
+  </si>
+  <si>
+    <t>Transferir responsabilidades</t>
+  </si>
+  <si>
+    <t>TS014</t>
+  </si>
+  <si>
+    <t>O que significa "prioridade" em um ticket?</t>
+  </si>
+  <si>
+    <t>Importância e urgência do problema</t>
+  </si>
+  <si>
+    <t>Tempo de resposta</t>
+  </si>
+  <si>
+    <t>Categoria do problema</t>
+  </si>
+  <si>
+    <t>Tipo de solução</t>
+  </si>
+  <si>
+    <t>TS015</t>
+  </si>
+  <si>
+    <t>Como deve ser documentada uma solução de incidente?</t>
+  </si>
+  <si>
+    <t>Detalhando o problema e a solução</t>
+  </si>
+  <si>
+    <t>Apenas o resultado final</t>
+  </si>
+  <si>
+    <t>Apenas o tempo de resolução</t>
+  </si>
+  <si>
+    <t>Apenas o técnico responsável</t>
+  </si>
+  <si>
+    <t>TS016</t>
+  </si>
+  <si>
+    <t>O que é um "incidente de alta prioridade"?</t>
+  </si>
+  <si>
+    <t>Um incidente que deve ser resolvido imediatamente</t>
+  </si>
+  <si>
+    <t>Um incidente que pode esperar</t>
+  </si>
+  <si>
+    <t>Um problema menor</t>
+  </si>
+  <si>
+    <t>Um erro administrativo</t>
+  </si>
+  <si>
+    <t>TS017</t>
+  </si>
+  <si>
+    <t>Qual é a função de uma "base de conhecimento"?</t>
+  </si>
+  <si>
+    <t>Repositório de informações e soluções</t>
+  </si>
+  <si>
+    <t>Ferramenta de comunicação</t>
+  </si>
+  <si>
+    <t>Aplicativo de ticketing</t>
+  </si>
+  <si>
+    <t>Documento de políticas</t>
+  </si>
+  <si>
+    <t>TS018</t>
+  </si>
+  <si>
+    <t>Como deve ser feita a análise de causa raiz?</t>
+  </si>
+  <si>
+    <t>Identificar a causa principal do problema</t>
+  </si>
+  <si>
+    <t>Ignorar causas subjacentes</t>
+  </si>
+  <si>
+    <t>Resolver o problema sem análise</t>
+  </si>
+  <si>
+    <t>Fechar o ticket sem investigação</t>
+  </si>
+  <si>
+    <t>TS019</t>
+  </si>
+  <si>
+    <t>O que é um "ticket de serviço"?</t>
+  </si>
+  <si>
+    <t>Solicitação formal para um serviço ou recurso</t>
+  </si>
+  <si>
+    <t>TS020</t>
+  </si>
+  <si>
+    <t>O que significa "resolução temporária"?</t>
+  </si>
+  <si>
+    <t>Solução provisória até a resolução definitiva</t>
+  </si>
+  <si>
+    <t>Solução definitiva</t>
+  </si>
+  <si>
+    <t>Solução que ignora o problema</t>
+  </si>
+  <si>
+    <t>TS021</t>
+  </si>
+  <si>
+    <t>Qual é a função do "time de suporte de nível 2"?</t>
+  </si>
+  <si>
+    <t>Resolver problemas mais complexos</t>
+  </si>
+  <si>
+    <t>Gerenciar o atendimento inicial</t>
+  </si>
+  <si>
+    <t>Criar políticas internas</t>
+  </si>
+  <si>
+    <t>GI012</t>
+  </si>
+  <si>
+    <t>O que é um "processo de gerenciamento de incidentes"?</t>
+  </si>
+  <si>
+    <t>Processo de identificar e resolver problemas</t>
+  </si>
+  <si>
+    <t>Processo de vendas</t>
+  </si>
+  <si>
+    <t>Processo de treinamento</t>
+  </si>
+  <si>
+    <t>Processo de desenvolvimento</t>
+  </si>
+  <si>
+    <t>GI013</t>
+  </si>
+  <si>
+    <t>Como deve ser tratado um ticket "em espera"?</t>
+  </si>
+  <si>
+    <t>Monitorar e informar o cliente</t>
+  </si>
+  <si>
+    <t>Ignorar até que o problema se resolva</t>
+  </si>
+  <si>
+    <t>Fechar sem resolução</t>
+  </si>
+  <si>
+    <t>GI014</t>
+  </si>
+  <si>
+    <t>Qual é a importância de um "documento de políticas" em um service desk?</t>
+  </si>
+  <si>
+    <t>Define as regras e procedimentos para o suporte</t>
+  </si>
+  <si>
+    <t>Aumenta a carga de trabalho</t>
+  </si>
+  <si>
+    <t>Reduz o tempo de resposta</t>
+  </si>
+  <si>
+    <t>Melhora a comunicação interna</t>
+  </si>
+  <si>
+    <t>GI015</t>
+  </si>
+  <si>
+    <t>O que é um "incidente" em um processo de service desk?</t>
+  </si>
+  <si>
+    <t>Evento que interrompe os serviços</t>
+  </si>
+  <si>
+    <t>Uma solicitação de serviço</t>
+  </si>
+  <si>
+    <t>GI016</t>
+  </si>
+  <si>
+    <t>Como deve ser feita a "resolução de problemas" em um service desk?</t>
+  </si>
+  <si>
+    <t>Identificar e corrigir a causa raiz</t>
+  </si>
+  <si>
+    <t>Fechar o ticket rapidamente</t>
+  </si>
+  <si>
+    <t>Transferir para o cliente</t>
+  </si>
+  <si>
+    <t>GI017</t>
+  </si>
+  <si>
+    <t>O que é um "ticket de baixa prioridade"?</t>
+  </si>
+  <si>
+    <t>Um ticket que pode ser resolvido mais tarde</t>
+  </si>
+  <si>
+    <t>Um ticket urgente</t>
+  </si>
+  <si>
+    <t>Um problema crítico</t>
+  </si>
+  <si>
+    <t>GI018</t>
+  </si>
+  <si>
+    <t>Qual é a função de um "relatório de incidentes"?</t>
+  </si>
+  <si>
+    <t>Analisar e documentar ocorrências de problemas</t>
+  </si>
+  <si>
+    <t>Fechar tickets</t>
+  </si>
+  <si>
+    <t>GI019</t>
+  </si>
+  <si>
+    <t>Como deve ser tratado um "feedback de cliente"?</t>
+  </si>
+  <si>
+    <t>Ignorar o feedback</t>
+  </si>
+  <si>
+    <t>Fechar o ticket sem ação</t>
+  </si>
+  <si>
+    <t>GI020</t>
+  </si>
+  <si>
+    <t>O que é um "acordo de nível de serviço" (SLA)?</t>
+  </si>
+  <si>
+    <t>Compromisso entre fornecedor e cliente sobre níveis de serviço</t>
+  </si>
+  <si>
+    <t>Documento financeiro</t>
+  </si>
+  <si>
+    <t>Termo de confidencialidade</t>
+  </si>
+  <si>
+    <t>Políticas internas</t>
+  </si>
+  <si>
+    <t>GI021</t>
+  </si>
+  <si>
+    <t>Como é definido o "tempo de resolução" em um SLA?</t>
+  </si>
+  <si>
+    <t>NG017</t>
+  </si>
+  <si>
+    <t>Qual é a importância de um "plano de continuidade de serviços"?</t>
+  </si>
+  <si>
+    <t>Garantir que os serviços continuem durante incidentes</t>
+  </si>
+  <si>
+    <t>Melhorar a comunicação interna</t>
+  </si>
+  <si>
+    <t>Aumentar a carga de trabalho</t>
+  </si>
+  <si>
+    <t>NG018</t>
+  </si>
+  <si>
+    <t>O que deve ser feito se um ticket está "em progresso"?</t>
+  </si>
+  <si>
+    <t>Atualizar o status e resolver</t>
+  </si>
+  <si>
+    <t>Fechar sem resolver</t>
+  </si>
+  <si>
+    <t>Transferir para outro técnico</t>
+  </si>
+  <si>
+    <t>NG019</t>
+  </si>
+  <si>
+    <t>Qual é a função de um "registro de problemas"?</t>
+  </si>
+  <si>
+    <t>Documentar e analisar problemas recorrentes</t>
+  </si>
+  <si>
+    <t>Resolver tickets rapidamente</t>
+  </si>
+  <si>
+    <t>Documentar soluções financeiras</t>
+  </si>
+  <si>
+    <t>NG020</t>
+  </si>
+  <si>
+    <t>O que é uma "solução permanente"?</t>
+  </si>
+  <si>
+    <t>Resolução definitiva para o problema</t>
+  </si>
+  <si>
+    <t>Solução que requer revisão</t>
+  </si>
+  <si>
+    <t>NG021</t>
+  </si>
+  <si>
+    <t>O que significa "escalonamento" em um service desk?</t>
+  </si>
+  <si>
+    <t>Transferir um ticket para níveis superiores</t>
+  </si>
+  <si>
+    <t>Resolver problemas internamente</t>
+  </si>
+  <si>
+    <t>Fechar o ticket imediatamente</t>
+  </si>
+  <si>
+    <t>Ignorar o ticket</t>
+  </si>
+  <si>
+    <t>NG022</t>
+  </si>
+  <si>
+    <t>Como deve ser feito o "gerenciamento de mudanças"?</t>
+  </si>
+  <si>
+    <t>Avaliar o impacto e implementar mudanças controladas</t>
+  </si>
+  <si>
+    <t>Adiar mudanças</t>
+  </si>
+  <si>
+    <t>Documentar apenas após a implementação</t>
+  </si>
+  <si>
+    <t>NG023</t>
+  </si>
+  <si>
+    <t>Qual é a diferença entre "incidente" e "problema"?</t>
+  </si>
+  <si>
+    <t>Incidente é um evento específico; problema é uma causa raiz</t>
+  </si>
+  <si>
+    <t>Incidente é uma causa raiz; problema é um evento</t>
+  </si>
+  <si>
+    <t>Incidente e problema são iguais</t>
+  </si>
+  <si>
+    <t>Problema é menos urgente que incidente</t>
+  </si>
+  <si>
+    <t>NG024</t>
+  </si>
+  <si>
+    <t>Solicitação formal para um novo serviço ou recurso</t>
+  </si>
+  <si>
+    <t>Problema técnico</t>
+  </si>
+  <si>
+    <t>Incidente crítico</t>
+  </si>
+  <si>
+    <t>Relatório financeiro</t>
+  </si>
+  <si>
+    <t>NG025</t>
+  </si>
+  <si>
+    <t>Armazenar soluções e informações</t>
+  </si>
+  <si>
+    <t>Gerenciar tickets</t>
+  </si>
+  <si>
+    <t>NG026</t>
+  </si>
+  <si>
+    <t>Como deve ser tratado um "incidente crítico"?</t>
+  </si>
+  <si>
+    <t>Deve ser resolvido imediatamente</t>
+  </si>
+  <si>
+    <t>Pode ser resolvido mais tarde</t>
+  </si>
+  <si>
+    <t>Ignorar até que o cliente entre em contato</t>
+  </si>
+  <si>
+    <t>Fechar sem solução</t>
+  </si>
+  <si>
+    <t>QT012</t>
+  </si>
+  <si>
+    <t>Reduzir o tempo de resposta</t>
+  </si>
+  <si>
+    <t>Diminui a eficiência</t>
+  </si>
+  <si>
+    <t>QT013</t>
+  </si>
+  <si>
+    <t>Avaliar e controlar mudanças</t>
+  </si>
+  <si>
+    <t>Implementar mudanças sem análise</t>
+  </si>
+  <si>
+    <t>QT014</t>
+  </si>
+  <si>
+    <t>Um incidente que afeta gravemente os serviços</t>
+  </si>
+  <si>
+    <t>Um incidente menor</t>
+  </si>
+  <si>
+    <t>Um problema administrativo</t>
+  </si>
+  <si>
+    <t>QT015</t>
+  </si>
+  <si>
+    <t>Qual é a função de um "analista de suporte"?</t>
+  </si>
+  <si>
+    <t>Resolver incidentes e fornecer suporte técnico</t>
+  </si>
+  <si>
+    <t>QT016</t>
+  </si>
+  <si>
+    <t>O que deve ser feito após a resolução de um incidente?</t>
+  </si>
+  <si>
+    <t>Verificar se a solução foi eficaz</t>
+  </si>
+  <si>
+    <t>Reabrir o ticket para revisão</t>
+  </si>
+  <si>
+    <t>QT017</t>
+  </si>
+  <si>
+    <t>O que é uma "solução temporária"?</t>
+  </si>
+  <si>
+    <t>QT018</t>
+  </si>
+  <si>
+    <t>Qual é o objetivo do "processo de gerenciamento de incidentes"?</t>
+  </si>
+  <si>
+    <t>Identificar e resolver problemas</t>
+  </si>
+  <si>
+    <t>Gerenciar pedidos de serviço</t>
+  </si>
+  <si>
+    <t>Treinar novos funcionários</t>
+  </si>
+  <si>
+    <t>QT019</t>
+  </si>
+  <si>
+    <t>O que é um "relatório de tendências"?</t>
+  </si>
+  <si>
+    <t>Análise de tendências de problemas e incidentes</t>
+  </si>
+  <si>
+    <t>Relatório de vendas</t>
+  </si>
+  <si>
+    <t>QT020</t>
+  </si>
+  <si>
+    <t>Incidente é um evento específico; problema é a causa raiz</t>
+  </si>
+  <si>
+    <t>Incidente e problema são a mesma coisa</t>
+  </si>
+  <si>
+    <t>Incidente é mais urgente que problema</t>
+  </si>
+  <si>
+    <t>QT021</t>
+  </si>
+  <si>
+    <t>O que é um "processo de gerenciamento de mudanças"?</t>
+  </si>
+  <si>
+    <t>Avaliar e controlar alterações</t>
+  </si>
+  <si>
+    <t>SN012</t>
+  </si>
+  <si>
+    <t>Qual é a função de um "analista de suporte" em um service desk?</t>
+  </si>
+  <si>
+    <t>SN013</t>
+  </si>
+  <si>
+    <t>SN014</t>
+  </si>
+  <si>
+    <t>Como deve ser tratado um "ticket em espera"?</t>
+  </si>
+  <si>
+    <t>SN015</t>
+  </si>
+  <si>
+    <t>SN016</t>
+  </si>
+  <si>
+    <t>Garantir a continuidade dos serviços durante incidentes</t>
+  </si>
+  <si>
+    <t>SN017</t>
+  </si>
+  <si>
+    <t>O que é um "relatório de incidentes"?</t>
+  </si>
+  <si>
+    <t>Documento que analisa e documenta ocorrências de problemas</t>
+  </si>
+  <si>
+    <t>SN018</t>
+  </si>
+  <si>
+    <t>SN019</t>
+  </si>
+  <si>
+    <t>SN020</t>
+  </si>
+  <si>
+    <t>O que é um "ticket de alta prioridade"?</t>
+  </si>
+  <si>
+    <t>Um ticket que deve ser resolvido imediatamente</t>
+  </si>
+  <si>
+    <t>Um ticket que pode esperar</t>
+  </si>
+  <si>
+    <t>SN021</t>
+  </si>
+  <si>
+    <t>O que é um "incidente crítico"?</t>
+  </si>
+  <si>
+    <t>Incidente que afeta gravemente os serviços</t>
+  </si>
+  <si>
+    <t>Incidente que pode esperar</t>
+  </si>
+  <si>
+    <t>Incidente menor</t>
+  </si>
+  <si>
+    <t>Incidente administrativo</t>
+  </si>
+  <si>
+    <t>TS022</t>
+  </si>
+  <si>
+    <t>TS023</t>
+  </si>
+  <si>
+    <t>Qual é a função do "processo de escalonamento"?</t>
+  </si>
+  <si>
+    <t>TS024</t>
+  </si>
+  <si>
+    <t>O que significa "tempo de resposta" em um SLA?</t>
+  </si>
+  <si>
+    <t>Tempo para começar a trabalhar no problema</t>
+  </si>
+  <si>
+    <t>Tempo total para resolver o problema</t>
+  </si>
+  <si>
+    <t>Tempo para o cliente responder</t>
+  </si>
+  <si>
+    <t>Tempo de espera do cliente</t>
+  </si>
+  <si>
+    <t>TS025</t>
+  </si>
+  <si>
+    <t>GI022</t>
+  </si>
+  <si>
+    <t>GI023</t>
+  </si>
+  <si>
+    <t>GI024</t>
+  </si>
+  <si>
+    <t>GI025</t>
+  </si>
+  <si>
+    <t>O que é um "plano de continuidade de serviços"?</t>
+  </si>
+  <si>
+    <t>NG027</t>
+  </si>
+  <si>
+    <t>Resolver imediatamente</t>
+  </si>
+  <si>
+    <t>Pode esperar</t>
+  </si>
+  <si>
+    <t>Ignorar até o cliente entrar em contato</t>
+  </si>
+  <si>
+    <t>NG028</t>
+  </si>
+  <si>
+    <t>NG029</t>
+  </si>
+  <si>
+    <t>Qual é a função do "processo de gerenciamento de incidentes"?</t>
+  </si>
+  <si>
+    <t>QT022</t>
+  </si>
+  <si>
+    <t>QT023</t>
+  </si>
+  <si>
+    <t>QT024</t>
+  </si>
+  <si>
+    <t>SN022</t>
+  </si>
+  <si>
+    <t>SN023</t>
+  </si>
+  <si>
+    <t>SN024</t>
+  </si>
+  <si>
+    <t>SN025</t>
   </si>
 </sst>
 </file>
@@ -887,10 +1691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A3FCA2-66BC-4607-AD30-1EED3AA5681B}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +1731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -950,7 +1754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -973,7 +1777,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -996,7 +1800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1019,7 +1823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1042,7 +1846,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>38</v>
       </c>
@@ -1065,7 +1869,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -1088,7 +1892,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
@@ -1111,7 +1915,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1134,7 +1938,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>38</v>
       </c>
@@ -1157,7 +1961,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -1180,7 +1984,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -1203,7 +2007,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>69</v>
       </c>
@@ -1226,7 +2030,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>69</v>
       </c>
@@ -1249,7 +2053,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>69</v>
       </c>
@@ -1272,7 +2076,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>100</v>
       </c>
@@ -1295,7 +2099,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>100</v>
       </c>
@@ -1318,7 +2122,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
@@ -1341,7 +2145,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>100</v>
       </c>
@@ -1364,7 +2168,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>100</v>
       </c>
@@ -1387,7 +2191,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>129</v>
       </c>
@@ -1410,7 +2214,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>129</v>
       </c>
@@ -1433,7 +2237,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>129</v>
       </c>
@@ -1479,7 +2283,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>129</v>
       </c>
@@ -1500,6 +2304,1685 @@
       </c>
       <c r="G26" s="2" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>

--- a/perguntas.xlsx
+++ b/perguntas.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\perguntas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F53347-BB53-418A-A02D-88126BBE17D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FB03BF-4240-4568-8DD4-C4C349D743EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{42F07258-CA02-475C-954F-3907A6AF603F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$94</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="420">
   <si>
     <t>Empresa</t>
   </si>
@@ -1059,9 +1062,6 @@
     <t>Diminui a eficiência</t>
   </si>
   <si>
-    <t>QT013</t>
-  </si>
-  <si>
     <t>Avaliar e controlar mudanças</t>
   </si>
   <si>
@@ -1107,9 +1107,6 @@
     <t>O que é uma "solução temporária"?</t>
   </si>
   <si>
-    <t>QT018</t>
-  </si>
-  <si>
     <t>Qual é o objetivo do "processo de gerenciamento de incidentes"?</t>
   </si>
   <si>
@@ -1296,19 +1293,10 @@
     <t>QT023</t>
   </si>
   <si>
-    <t>QT024</t>
-  </si>
-  <si>
     <t>SN022</t>
   </si>
   <si>
-    <t>SN023</t>
-  </si>
-  <si>
     <t>SN024</t>
-  </si>
-  <si>
-    <t>SN025</t>
   </si>
 </sst>
 </file>
@@ -1691,16 +1679,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A3FCA2-66BC-4607-AD30-1EED3AA5681B}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="2" max="2" width="54.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
@@ -1759,91 +1747,91 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>195</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>196</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>356</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>357</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>358</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>359</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1851,91 +1839,91 @@
         <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>290</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>291</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>49</v>
+        <v>292</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>289</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>52</v>
+        <v>378</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>54</v>
+        <v>291</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>292</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>253</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>254</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>255</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>256</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>61</v>
+        <v>257</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1943,528 +1931,528 @@
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>65</v>
+        <v>292</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>66</v>
+        <v>339</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>67</v>
+        <v>340</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>237</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>238</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>92</v>
+        <v>240</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>94</v>
+        <v>415</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>95</v>
+        <v>357</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>96</v>
+        <v>358</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>98</v>
+        <v>359</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>99</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>101</v>
+        <v>396</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>102</v>
+        <v>309</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>103</v>
+        <v>310</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>104</v>
+        <v>311</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>105</v>
+        <v>312</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>106</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>108</v>
+        <v>218</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>112</v>
+        <v>217</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>113</v>
+        <v>330</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>114</v>
+        <v>331</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>116</v>
+        <v>240</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>118</v>
+        <v>273</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>119</v>
+        <v>274</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>120</v>
+        <v>275</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>124</v>
+        <v>299</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>125</v>
+        <v>300</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>301</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>127</v>
+        <v>302</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>130</v>
+        <v>299</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>131</v>
+        <v>300</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>132</v>
+        <v>301</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>97</v>
+        <v>302</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>134</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>135</v>
+        <v>348</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>136</v>
+        <v>349</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>141</v>
+        <v>372</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>142</v>
+        <v>349</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>144</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>148</v>
+        <v>12</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>153</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>157</v>
+        <v>319</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>158</v>
+        <v>320</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>160</v>
+        <v>322</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>43</v>
+        <v>323</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>162</v>
+        <v>319</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>163</v>
+        <v>365</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>164</v>
+        <v>366</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>165</v>
+        <v>323</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>166</v>
+        <v>367</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>167</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>172</v>
+        <v>18</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>174</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>180</v>
+        <v>398</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>181</v>
+        <v>399</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>183</v>
+        <v>401</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>184</v>
+        <v>402</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>78</v>
+        <v>172</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2472,252 +2460,252 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>199</v>
+        <v>308</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>200</v>
+        <v>309</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>201</v>
+        <v>310</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>202</v>
+        <v>311</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>203</v>
+        <v>312</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>209</v>
+        <v>105</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>217</v>
+        <v>355</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>222</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="B43" s="2" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>244</v>
+        <v>16</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>245</v>
+        <v>137</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>248</v>
+        <v>151</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>249</v>
+        <v>152</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>250</v>
+        <v>153</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>252</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -2725,68 +2713,68 @@
         <v>38</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>254</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>255</v>
+        <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>256</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>257</v>
+        <v>43</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>259</v>
+        <v>135</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>260</v>
+        <v>136</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>261</v>
+        <v>137</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>267</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2794,482 +2782,482 @@
         <v>38</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>215</v>
+        <v>328</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>272</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>74</v>
+        <v>327</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>143</v>
+        <v>328</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>287</v>
+        <v>385</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>169</v>
+        <v>386</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>170</v>
+        <v>387</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>289</v>
+        <v>385</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>290</v>
+        <v>386</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>11</v>
+        <v>387</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>291</v>
+        <v>214</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>292</v>
+        <v>215</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>294</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>295</v>
+        <v>362</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>296</v>
+        <v>221</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>299</v>
+        <v>361</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>195</v>
+        <v>221</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>302</v>
+        <v>363</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>304</v>
+        <v>380</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>305</v>
+        <v>381</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>176</v>
+        <v>328</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>308</v>
+        <v>380</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>309</v>
+        <v>381</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>311</v>
+        <v>221</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>312</v>
+        <v>363</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>120</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>317</v>
+        <v>197</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>319</v>
+        <v>242</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>321</v>
+        <v>244</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>322</v>
+        <v>245</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>323</v>
+        <v>246</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>324</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>325</v>
+        <v>158</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>326</v>
+        <v>159</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>328</v>
+        <v>43</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>217</v>
+        <v>408</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>331</v>
+        <v>11</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>332</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>334</v>
+        <v>260</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>335</v>
+        <v>261</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>336</v>
+        <v>41</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>337</v>
+        <v>43</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>124</v>
+        <v>211</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>292</v>
+        <v>213</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>339</v>
+        <v>214</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>340</v>
+        <v>215</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>314</v>
+        <v>211</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>120</v>
+        <v>345</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>122</v>
+        <v>261</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>211</v>
+        <v>389</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>261</v>
+        <v>393</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>349</v>
+        <v>281</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>350</v>
+        <v>282</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>72</v>
+        <v>283</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>352</v>
+        <v>281</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>353</v>
+        <v>282</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>354</v>
+        <v>284</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>59</v>
+        <v>285</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>356</v>
+        <v>26</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>234</v>
+        <v>28</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>235</v>
+        <v>29</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>357</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3277,229 +3265,229 @@
         <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>358</v>
+        <v>112</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>359</v>
+        <v>113</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>360</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>361</v>
+        <v>116</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>363</v>
+        <v>130</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>364</v>
+        <v>131</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>328</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>365</v>
+        <v>97</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>319</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>367</v>
+        <v>95</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>368</v>
+        <v>96</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>323</v>
+        <v>97</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>369</v>
+        <v>98</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>370</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>372</v>
+        <v>295</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>196</v>
+        <v>296</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>197</v>
+        <v>297</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>374</v>
+        <v>57</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>350</v>
+        <v>58</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>175</v>
+        <v>352</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>176</v>
+        <v>311</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>235</v>
+        <v>353</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>376</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>377</v>
+        <v>188</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>250</v>
+        <v>190</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>296</v>
+        <v>133</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>297</v>
+        <v>191</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>281</v>
+        <v>32</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>282</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>283</v>
+        <v>34</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>284</v>
+        <v>35</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>285</v>
+        <v>36</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>289</v>
+        <v>88</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>380</v>
+        <v>89</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>291</v>
+        <v>91</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>292</v>
+        <v>92</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>382</v>
+        <v>162</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>383</v>
+        <v>163</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>328</v>
+        <v>164</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>365</v>
+        <v>166</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>384</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3507,206 +3495,206 @@
         <v>129</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>226</v>
+        <v>147</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>299</v>
+        <v>118</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>300</v>
+        <v>119</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>301</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>195</v>
+        <v>121</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>302</v>
+        <v>122</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>388</v>
+        <v>169</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>389</v>
+        <v>170</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>391</v>
+        <v>248</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>392</v>
+        <v>249</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>393</v>
+        <v>250</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>394</v>
+        <v>251</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>395</v>
+        <v>133</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>396</v>
+        <v>252</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>372</v>
+        <v>249</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>250</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>122</v>
+        <v>297</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>309</v>
+        <v>410</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>310</v>
+        <v>411</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>311</v>
+        <v>412</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>400</v>
+        <v>333</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>401</v>
+        <v>334</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>402</v>
+        <v>335</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>403</v>
+        <v>336</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>404</v>
+        <v>337</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>230</v>
+        <v>146</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>328</v>
+        <v>91</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>406</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>314</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>125</v>
+        <v>370</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>292</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>340</v>
+        <v>122</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -3717,7 +3705,7 @@
         <v>314</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>120</v>
@@ -3729,260 +3717,145 @@
         <v>317</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>382</v>
+        <v>314</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>328</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>221</v>
+        <v>316</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>410</v>
+        <v>314</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>290</v>
+        <v>341</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>292</v>
+        <v>122</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>411</v>
+        <v>343</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>412</v>
+        <v>224</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>413</v>
+        <v>225</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>414</v>
+        <v>226</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>337</v>
+        <v>227</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>387</v>
+        <v>223</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>388</v>
+        <v>224</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>389</v>
+        <v>225</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>417</v>
+        <v>263</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>359</v>
+        <v>264</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>360</v>
+        <v>265</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>361</v>
+        <v>266</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>356</v>
+        <v>205</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>424</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/perguntas.xlsx
+++ b/perguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\perguntas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FB03BF-4240-4568-8DD4-C4C349D743EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D489FDA-C9BF-4613-92A7-8F41ABC13517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{42F07258-CA02-475C-954F-3907A6AF603F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="639">
   <si>
     <t>Empresa</t>
   </si>
@@ -60,15 +60,6 @@
     <t>Resposta Errada 3</t>
   </si>
   <si>
-    <t>Tech Solutions</t>
-  </si>
-  <si>
-    <t>Qual é o objetivo principal do service desk?</t>
-  </si>
-  <si>
-    <t>Resolver problemas dos usuários</t>
-  </si>
-  <si>
     <t>Aumentar vendas</t>
   </si>
   <si>
@@ -78,9 +69,6 @@
     <t>Gerenciar projetos</t>
   </si>
   <si>
-    <t>TS001</t>
-  </si>
-  <si>
     <t>O que significa SLA em um contrato de service desk?</t>
   </si>
   <si>
@@ -153,9 +141,6 @@
     <t>TS005</t>
   </si>
   <si>
-    <t>Global IT</t>
-  </si>
-  <si>
     <t>O que é um incidente no contexto do service desk?</t>
   </si>
   <si>
@@ -210,24 +195,9 @@
     <t>GI003</t>
   </si>
   <si>
-    <t>O que deve ser feito após a resolução de um ticket?</t>
-  </si>
-  <si>
-    <t>Fechar o ticket e documentar</t>
-  </si>
-  <si>
     <t>Ignorar e passar para o próximo</t>
   </si>
   <si>
-    <t>Atualizar o status regularmente</t>
-  </si>
-  <si>
-    <t>Reabrir o ticket</t>
-  </si>
-  <si>
-    <t>GI004</t>
-  </si>
-  <si>
     <t>Qual é a importância dos SLAs para o service desk?</t>
   </si>
   <si>
@@ -246,9 +216,6 @@
     <t>GI005</t>
   </si>
   <si>
-    <t>NextGen Systems</t>
-  </si>
-  <si>
     <t>Qual é a principal função de um service desk?</t>
   </si>
   <si>
@@ -339,9 +306,6 @@
     <t>NG005</t>
   </si>
   <si>
-    <t>Quantum Tech</t>
-  </si>
-  <si>
     <t>O que é uma categoria de ticket em um service desk?</t>
   </si>
   <si>
@@ -417,18 +381,6 @@
     <t>Garantir consistência e referência</t>
   </si>
   <si>
-    <t>Aumentar a complexidade</t>
-  </si>
-  <si>
-    <t>Melhorar a velocidade de resposta</t>
-  </si>
-  <si>
-    <t>QT005</t>
-  </si>
-  <si>
-    <t>SecureNet</t>
-  </si>
-  <si>
     <t>O que deve ser feito se um usuário solicita uma alteração no serviço?</t>
   </si>
   <si>
@@ -708,9 +660,6 @@
     <t>TS018</t>
   </si>
   <si>
-    <t>Como deve ser feita a análise de causa raiz?</t>
-  </si>
-  <si>
     <t>Identificar a causa principal do problema</t>
   </si>
   <si>
@@ -723,9 +672,6 @@
     <t>Fechar o ticket sem investigação</t>
   </si>
   <si>
-    <t>TS019</t>
-  </si>
-  <si>
     <t>O que é um "ticket de serviço"?</t>
   </si>
   <si>
@@ -900,12 +846,6 @@
     <t>GI021</t>
   </si>
   <si>
-    <t>Como é definido o "tempo de resolução" em um SLA?</t>
-  </si>
-  <si>
-    <t>NG017</t>
-  </si>
-  <si>
     <t>Qual é a importância de um "plano de continuidade de serviços"?</t>
   </si>
   <si>
@@ -948,21 +888,6 @@
     <t>Documentar soluções financeiras</t>
   </si>
   <si>
-    <t>NG020</t>
-  </si>
-  <si>
-    <t>O que é uma "solução permanente"?</t>
-  </si>
-  <si>
-    <t>Resolução definitiva para o problema</t>
-  </si>
-  <si>
-    <t>Solução que requer revisão</t>
-  </si>
-  <si>
-    <t>NG021</t>
-  </si>
-  <si>
     <t>O que significa "escalonamento" em um service desk?</t>
   </si>
   <si>
@@ -1014,30 +939,9 @@
     <t>NG024</t>
   </si>
   <si>
-    <t>Solicitação formal para um novo serviço ou recurso</t>
-  </si>
-  <si>
-    <t>Problema técnico</t>
-  </si>
-  <si>
-    <t>Incidente crítico</t>
-  </si>
-  <si>
     <t>Relatório financeiro</t>
   </si>
   <si>
-    <t>NG025</t>
-  </si>
-  <si>
-    <t>Armazenar soluções e informações</t>
-  </si>
-  <si>
-    <t>Gerenciar tickets</t>
-  </si>
-  <si>
-    <t>NG026</t>
-  </si>
-  <si>
     <t>Como deve ser tratado um "incidente crítico"?</t>
   </si>
   <si>
@@ -1062,15 +966,6 @@
     <t>Diminui a eficiência</t>
   </si>
   <si>
-    <t>Avaliar e controlar mudanças</t>
-  </si>
-  <si>
-    <t>Implementar mudanças sem análise</t>
-  </si>
-  <si>
-    <t>QT014</t>
-  </si>
-  <si>
     <t>Um incidente que afeta gravemente os serviços</t>
   </si>
   <si>
@@ -1083,15 +978,9 @@
     <t>QT015</t>
   </si>
   <si>
-    <t>Qual é a função de um "analista de suporte"?</t>
-  </si>
-  <si>
     <t>Resolver incidentes e fornecer suporte técnico</t>
   </si>
   <si>
-    <t>QT016</t>
-  </si>
-  <si>
     <t>O que deve ser feito após a resolução de um incidente?</t>
   </si>
   <si>
@@ -1131,21 +1020,6 @@
     <t>Relatório de vendas</t>
   </si>
   <si>
-    <t>QT020</t>
-  </si>
-  <si>
-    <t>Incidente é um evento específico; problema é a causa raiz</t>
-  </si>
-  <si>
-    <t>Incidente e problema são a mesma coisa</t>
-  </si>
-  <si>
-    <t>Incidente é mais urgente que problema</t>
-  </si>
-  <si>
-    <t>QT021</t>
-  </si>
-  <si>
     <t>O que é um "processo de gerenciamento de mudanças"?</t>
   </si>
   <si>
@@ -1161,24 +1035,9 @@
     <t>SN013</t>
   </si>
   <si>
-    <t>SN014</t>
-  </si>
-  <si>
-    <t>Como deve ser tratado um "ticket em espera"?</t>
-  </si>
-  <si>
-    <t>SN015</t>
-  </si>
-  <si>
     <t>SN016</t>
   </si>
   <si>
-    <t>Garantir a continuidade dos serviços durante incidentes</t>
-  </si>
-  <si>
-    <t>SN017</t>
-  </si>
-  <si>
     <t>O que é um "relatório de incidentes"?</t>
   </si>
   <si>
@@ -1224,9 +1083,6 @@
     <t>TS022</t>
   </si>
   <si>
-    <t>TS023</t>
-  </si>
-  <si>
     <t>Qual é a função do "processo de escalonamento"?</t>
   </si>
   <si>
@@ -1251,15 +1107,9 @@
     <t>TS025</t>
   </si>
   <si>
-    <t>GI022</t>
-  </si>
-  <si>
     <t>GI023</t>
   </si>
   <si>
-    <t>GI024</t>
-  </si>
-  <si>
     <t>GI025</t>
   </si>
   <si>
@@ -1269,21 +1119,6 @@
     <t>NG027</t>
   </si>
   <si>
-    <t>Resolver imediatamente</t>
-  </si>
-  <si>
-    <t>Pode esperar</t>
-  </si>
-  <si>
-    <t>Ignorar até o cliente entrar em contato</t>
-  </si>
-  <si>
-    <t>NG028</t>
-  </si>
-  <si>
-    <t>NG029</t>
-  </si>
-  <si>
     <t>Qual é a função do "processo de gerenciamento de incidentes"?</t>
   </si>
   <si>
@@ -1297,6 +1132,828 @@
   </si>
   <si>
     <t>SN024</t>
+  </si>
+  <si>
+    <t>Service Desk</t>
+  </si>
+  <si>
+    <t>O que é engenharia social?</t>
+  </si>
+  <si>
+    <t>Técnica de manipulação psicológica</t>
+  </si>
+  <si>
+    <t>Processo de engenharia civil</t>
+  </si>
+  <si>
+    <t>Estudo da interação social</t>
+  </si>
+  <si>
+    <t>Método de programação</t>
+  </si>
+  <si>
+    <t>ES001</t>
+  </si>
+  <si>
+    <t>Qual o objetivo principal da engenharia social?</t>
+  </si>
+  <si>
+    <t>Obter informações confidenciais</t>
+  </si>
+  <si>
+    <t>Construir pontes</t>
+  </si>
+  <si>
+    <t>Melhorar a comunicação</t>
+  </si>
+  <si>
+    <t>ES002</t>
+  </si>
+  <si>
+    <t>Um exemplo comum de engenharia social é:</t>
+  </si>
+  <si>
+    <t>Phishing</t>
+  </si>
+  <si>
+    <t>Reunião de equipe</t>
+  </si>
+  <si>
+    <t>Teste de penetração</t>
+  </si>
+  <si>
+    <t>Atualização de software</t>
+  </si>
+  <si>
+    <t>ES003</t>
+  </si>
+  <si>
+    <t>Qual é um sinal de um ataque de phishing?</t>
+  </si>
+  <si>
+    <t>E-mail solicitando informações pessoais</t>
+  </si>
+  <si>
+    <t>Mensagem de um colega</t>
+  </si>
+  <si>
+    <t>Notificação de atualização de software</t>
+  </si>
+  <si>
+    <t>Boletim informativo da empresa</t>
+  </si>
+  <si>
+    <t>ES004</t>
+  </si>
+  <si>
+    <t>O que é pretexting?</t>
+  </si>
+  <si>
+    <t>Criação de um cenário falso para obter informações</t>
+  </si>
+  <si>
+    <t>Uso de senha forte</t>
+  </si>
+  <si>
+    <t>Implementação de firewalls</t>
+  </si>
+  <si>
+    <t>Criação de relatórios de segurança</t>
+  </si>
+  <si>
+    <t>ES005</t>
+  </si>
+  <si>
+    <t>Qual técnica envolve o uso de uma identidade falsa?</t>
+  </si>
+  <si>
+    <t>Spoofing</t>
+  </si>
+  <si>
+    <t>Autenticação de dois fatores</t>
+  </si>
+  <si>
+    <t>Backup de dados</t>
+  </si>
+  <si>
+    <t>Criptografia</t>
+  </si>
+  <si>
+    <t>ES006</t>
+  </si>
+  <si>
+    <t>Tailgating é uma técnica de engenharia social que:</t>
+  </si>
+  <si>
+    <t>Consiste em seguir alguém para acessar áreas restritas</t>
+  </si>
+  <si>
+    <t>Envolve criar um site falso</t>
+  </si>
+  <si>
+    <t>Realiza ataques DDoS</t>
+  </si>
+  <si>
+    <t>Cria vírus para roubar dados</t>
+  </si>
+  <si>
+    <t>ES007</t>
+  </si>
+  <si>
+    <t>O que é baiting?</t>
+  </si>
+  <si>
+    <t>Técnica que envolve oferecer algo para obter acesso</t>
+  </si>
+  <si>
+    <t>Uso de malware</t>
+  </si>
+  <si>
+    <t>Implementação de políticas de segurança</t>
+  </si>
+  <si>
+    <t>Análise de vulnerabilidades</t>
+  </si>
+  <si>
+    <t>ES008</t>
+  </si>
+  <si>
+    <t>Smishing envolve:</t>
+  </si>
+  <si>
+    <t>Envio de mensagens SMS fraudulentas</t>
+  </si>
+  <si>
+    <t>Hackear redes Wi-Fi</t>
+  </si>
+  <si>
+    <t>Análise forense de computadores</t>
+  </si>
+  <si>
+    <t>Backup em nuvem</t>
+  </si>
+  <si>
+    <t>ES009</t>
+  </si>
+  <si>
+    <t>O que é vishing?</t>
+  </si>
+  <si>
+    <t>Uso de chamadas telefônicas para enganar</t>
+  </si>
+  <si>
+    <t>Criação de senhas fortes</t>
+  </si>
+  <si>
+    <t>Instalação de antivírus</t>
+  </si>
+  <si>
+    <t>Monitoramento de rede</t>
+  </si>
+  <si>
+    <t>ES010</t>
+  </si>
+  <si>
+    <t>Dumpster diving refere-se a:</t>
+  </si>
+  <si>
+    <t>Coleta de informações em lixos e reciclagens</t>
+  </si>
+  <si>
+    <t>Uso de biometria</t>
+  </si>
+  <si>
+    <t>Implementação de honeypots</t>
+  </si>
+  <si>
+    <t>ES011</t>
+  </si>
+  <si>
+    <t>Como a engenharia social pode ser evitada?</t>
+  </si>
+  <si>
+    <t>Treinamento e conscientização dos funcionários</t>
+  </si>
+  <si>
+    <t>Uso de hardware antigo</t>
+  </si>
+  <si>
+    <t>Compartilhamento de senhas</t>
+  </si>
+  <si>
+    <t>Evitando atualizações</t>
+  </si>
+  <si>
+    <t>ES012</t>
+  </si>
+  <si>
+    <t>Quais são as quatro fases do ciclo de vida da engenharia social?</t>
+  </si>
+  <si>
+    <t>Investigação, desenvolvimento, exploração, detecção</t>
+  </si>
+  <si>
+    <t>Planejamento, desenvolvimento, testes, implantação</t>
+  </si>
+  <si>
+    <t>Desenvolvimento, testes, produção, manutenção</t>
+  </si>
+  <si>
+    <t>Iniciação, planejamento, execução, encerramento</t>
+  </si>
+  <si>
+    <t>ES013</t>
+  </si>
+  <si>
+    <t>Quais as principais características de um ataque de engenharia social?</t>
+  </si>
+  <si>
+    <t>Manipulação, persuasão, confiança</t>
+  </si>
+  <si>
+    <t>Força bruta, vulnerabilidade, script</t>
+  </si>
+  <si>
+    <t>Exploração, uso de malware, firewall</t>
+  </si>
+  <si>
+    <t>Senhas fracas, força bruta, criptografia</t>
+  </si>
+  <si>
+    <t>ES014</t>
+  </si>
+  <si>
+    <t>Engenharia social é frequentemente usada para:</t>
+  </si>
+  <si>
+    <t>Roubo de identidade e acesso não autorizado</t>
+  </si>
+  <si>
+    <t>Desenvolvimento de software</t>
+  </si>
+  <si>
+    <t>Criação de políticas de segurança</t>
+  </si>
+  <si>
+    <t>Testes de rede</t>
+  </si>
+  <si>
+    <t>ES015</t>
+  </si>
+  <si>
+    <t>Por que os ataques de engenharia social são eficazes?</t>
+  </si>
+  <si>
+    <t>Porque exploram a psicologia humana</t>
+  </si>
+  <si>
+    <t>Porque são tecnologicamente avançados</t>
+  </si>
+  <si>
+    <t>Porque envolvem força bruta</t>
+  </si>
+  <si>
+    <t>Porque são facilmente detectáveis</t>
+  </si>
+  <si>
+    <t>ES016</t>
+  </si>
+  <si>
+    <t>Como identificar um ataque de phishing?</t>
+  </si>
+  <si>
+    <t>Verificando a URL e o remetente do e-mail</t>
+  </si>
+  <si>
+    <t>Ignorando todas as mensagens</t>
+  </si>
+  <si>
+    <t>Usando qualquer link fornecido</t>
+  </si>
+  <si>
+    <t>Compartilhando informações pessoais</t>
+  </si>
+  <si>
+    <t>ES017</t>
+  </si>
+  <si>
+    <t>Qual a diferença entre phishing e spear phishing?</t>
+  </si>
+  <si>
+    <t>Spear phishing é direcionado a indivíduos específicos</t>
+  </si>
+  <si>
+    <t>Phishing é por telefone</t>
+  </si>
+  <si>
+    <t>Phishing usa engenharia genética</t>
+  </si>
+  <si>
+    <t>Não há diferença</t>
+  </si>
+  <si>
+    <t>ES018</t>
+  </si>
+  <si>
+    <t>Quais medidas podem ser tomadas para se proteger contra engenharia social?</t>
+  </si>
+  <si>
+    <t>Educação e treinamento de funcionários</t>
+  </si>
+  <si>
+    <t>Ignorar todos os e-mails</t>
+  </si>
+  <si>
+    <t>Usar a mesma senha para todas as contas</t>
+  </si>
+  <si>
+    <t>Compartilhar senhas com colegas</t>
+  </si>
+  <si>
+    <t>ES019</t>
+  </si>
+  <si>
+    <t>Engenharia social pode ser realizada por:</t>
+  </si>
+  <si>
+    <t>E-mail, telefone, pessoalmente</t>
+  </si>
+  <si>
+    <t>Apenas pessoalmente</t>
+  </si>
+  <si>
+    <t>Apenas por telefone</t>
+  </si>
+  <si>
+    <t>Apenas por e-mail</t>
+  </si>
+  <si>
+    <t>ES020</t>
+  </si>
+  <si>
+    <t>Como a engenharia social é usada em ataques cibernéticos?</t>
+  </si>
+  <si>
+    <t>Para obter acesso inicial a sistemas</t>
+  </si>
+  <si>
+    <t>Para melhorar a infraestrutura de rede</t>
+  </si>
+  <si>
+    <t>Para educar funcionários</t>
+  </si>
+  <si>
+    <t>Para fazer backup de dados</t>
+  </si>
+  <si>
+    <t>ES021</t>
+  </si>
+  <si>
+    <t>O que é um "honeypot" na segurança da informação?</t>
+  </si>
+  <si>
+    <t>Um sistema usado para atrair e monitorar atacantes</t>
+  </si>
+  <si>
+    <t>Um tipo de malware</t>
+  </si>
+  <si>
+    <t>Um tipo de firewall</t>
+  </si>
+  <si>
+    <t>Uma técnica de criptografia</t>
+  </si>
+  <si>
+    <t>ES022</t>
+  </si>
+  <si>
+    <t>Quais são os elementos-chave de um ataque de pretexting?</t>
+  </si>
+  <si>
+    <t>Cenário falso, confiança, coleta de dados</t>
+  </si>
+  <si>
+    <t>Malware, phishing, DDoS</t>
+  </si>
+  <si>
+    <t>Força bruta, keylogging, spoofing</t>
+  </si>
+  <si>
+    <t>Dumpster diving, tailgating, hacking</t>
+  </si>
+  <si>
+    <t>ES023</t>
+  </si>
+  <si>
+    <t>Qual é o papel da psicologia na engenharia social?</t>
+  </si>
+  <si>
+    <t>Explorar fraquezas humanas</t>
+  </si>
+  <si>
+    <t>Desenvolver software seguro</t>
+  </si>
+  <si>
+    <t>Implementar firewalls</t>
+  </si>
+  <si>
+    <t>Monitorar redes</t>
+  </si>
+  <si>
+    <t>ES024</t>
+  </si>
+  <si>
+    <t>Um ataque de engenharia social pode envolver:</t>
+  </si>
+  <si>
+    <t>Impersonação</t>
+  </si>
+  <si>
+    <t>ES025</t>
+  </si>
+  <si>
+    <t>O que é um ataque de "quid pro quo"?</t>
+  </si>
+  <si>
+    <t>Oferecer algo em troca de informações</t>
+  </si>
+  <si>
+    <t>Ataque de negação de serviço</t>
+  </si>
+  <si>
+    <t>Injeção de SQL</t>
+  </si>
+  <si>
+    <t>Buffer overflow</t>
+  </si>
+  <si>
+    <t>ES026</t>
+  </si>
+  <si>
+    <t>Como a "intimidação" é usada na engenharia social?</t>
+  </si>
+  <si>
+    <t>Ameaçando ou pressionando alguém a fornecer informações</t>
+  </si>
+  <si>
+    <t>Enviando e-mails falsos</t>
+  </si>
+  <si>
+    <t>Hackeando redes</t>
+  </si>
+  <si>
+    <t>Usando força bruta</t>
+  </si>
+  <si>
+    <t>ES027</t>
+  </si>
+  <si>
+    <t>Qual a melhor prática ao receber uma solicitação de informações sensíveis?</t>
+  </si>
+  <si>
+    <t>Verificar a identidade do solicitante</t>
+  </si>
+  <si>
+    <t>Fornecer imediatamente</t>
+  </si>
+  <si>
+    <t>Compartilhar com colegas</t>
+  </si>
+  <si>
+    <t>ES028</t>
+  </si>
+  <si>
+    <t>O que é um "ataque de confiança"?</t>
+  </si>
+  <si>
+    <t>Um ataque baseado na construção de confiança</t>
+  </si>
+  <si>
+    <t>Um ataque por força bruta</t>
+  </si>
+  <si>
+    <t>Um ataque com malware</t>
+  </si>
+  <si>
+    <t>Um ataque de negação de serviço</t>
+  </si>
+  <si>
+    <t>ES029</t>
+  </si>
+  <si>
+    <t>Por que é importante reportar tentativas de engenharia social?</t>
+  </si>
+  <si>
+    <t>Para melhorar a segurança geral da organização</t>
+  </si>
+  <si>
+    <t>Para punir os atacantes</t>
+  </si>
+  <si>
+    <t>Para promover um ambiente de medo</t>
+  </si>
+  <si>
+    <t>Para reduzir a carga de trabalho</t>
+  </si>
+  <si>
+    <t>ES030</t>
+  </si>
+  <si>
+    <t>Qual é um exemplo de ataque de engenharia social online?</t>
+  </si>
+  <si>
+    <t>Envio de e-mails fraudulentos</t>
+  </si>
+  <si>
+    <t>ES031</t>
+  </si>
+  <si>
+    <t>Engenharia social pode ser usada para:</t>
+  </si>
+  <si>
+    <t>Obter acesso a sistemas internos</t>
+  </si>
+  <si>
+    <t>Melhorar a eficiência do trabalho</t>
+  </si>
+  <si>
+    <t>Criar redes seguras</t>
+  </si>
+  <si>
+    <t>Atualizar software</t>
+  </si>
+  <si>
+    <t>ES032</t>
+  </si>
+  <si>
+    <t>Quais são as consequências de um ataque de engenharia social bem-sucedido?</t>
+  </si>
+  <si>
+    <t>Perda de dados e danos financeiros</t>
+  </si>
+  <si>
+    <t>Melhorias na segurança</t>
+  </si>
+  <si>
+    <t>Aumento da produtividade</t>
+  </si>
+  <si>
+    <t>ES033</t>
+  </si>
+  <si>
+    <t>O que deve ser feito ao receber um e-mail suspeito?</t>
+  </si>
+  <si>
+    <t>Não clicar em links e reportar ao departamento de TI</t>
+  </si>
+  <si>
+    <t>Responder imediatamente</t>
+  </si>
+  <si>
+    <t>Ignorar a mensagem</t>
+  </si>
+  <si>
+    <t>ES034</t>
+  </si>
+  <si>
+    <t>O que é "pharming"?</t>
+  </si>
+  <si>
+    <t>Redirecionamento de tráfego para sites fraudulentos</t>
+  </si>
+  <si>
+    <t>Envio de e-mails falsos</t>
+  </si>
+  <si>
+    <t>Coleta de dados em lixos</t>
+  </si>
+  <si>
+    <t>ES035</t>
+  </si>
+  <si>
+    <t>Como "social engineering toolkit" é usado?</t>
+  </si>
+  <si>
+    <t>Para testar vulnerabilidades de engenharia social</t>
+  </si>
+  <si>
+    <t>Para criar firewalls</t>
+  </si>
+  <si>
+    <t>Para monitorar redes</t>
+  </si>
+  <si>
+    <t>Para desenvolver software</t>
+  </si>
+  <si>
+    <t>ES036</t>
+  </si>
+  <si>
+    <t>Qual é uma prática recomendada para evitar engenharia social?</t>
+  </si>
+  <si>
+    <t>Treinamento regular em segurança</t>
+  </si>
+  <si>
+    <t>Ignorar atualizações</t>
+  </si>
+  <si>
+    <t>ES037</t>
+  </si>
+  <si>
+    <t>Qual é um exemplo de engenharia social física?</t>
+  </si>
+  <si>
+    <t>Tailgating</t>
+  </si>
+  <si>
+    <t>Hackeamento de redes Wi-Fi</t>
+  </si>
+  <si>
+    <t>ES038</t>
+  </si>
+  <si>
+    <t>O que é um "kit de engenharia social"?</t>
+  </si>
+  <si>
+    <t>Ferramenta para realizar testes de penetração</t>
+  </si>
+  <si>
+    <t>Uma política de segurança</t>
+  </si>
+  <si>
+    <t>Um método de criptografia</t>
+  </si>
+  <si>
+    <t>ES039</t>
+  </si>
+  <si>
+    <t>Qual é o principal fator de sucesso em um ataque de engenharia social?</t>
+  </si>
+  <si>
+    <t>Habilidade em manipular emoções</t>
+  </si>
+  <si>
+    <t>Conhecimento técnico avançado</t>
+  </si>
+  <si>
+    <t>Acesso físico ao hardware</t>
+  </si>
+  <si>
+    <t>Uso de ferramentas automatizadas</t>
+  </si>
+  <si>
+    <t>ES040</t>
+  </si>
+  <si>
+    <t>Smishing</t>
+  </si>
+  <si>
+    <t>Vishing</t>
+  </si>
+  <si>
+    <t>Baiting</t>
+  </si>
+  <si>
+    <t>ES041</t>
+  </si>
+  <si>
+    <t>Engenharia social pode afetar:</t>
+  </si>
+  <si>
+    <t>Qualquer organização ou indivíduo</t>
+  </si>
+  <si>
+    <t>Apenas grandes empresas</t>
+  </si>
+  <si>
+    <t>Apenas indivíduos sem conhecimento técnico</t>
+  </si>
+  <si>
+    <t>Apenas pequenas empresas</t>
+  </si>
+  <si>
+    <t>ES042</t>
+  </si>
+  <si>
+    <t>Qual a importância da "política de segurança da informação"?</t>
+  </si>
+  <si>
+    <t>Definir diretrizes para proteger dados</t>
+  </si>
+  <si>
+    <t>Melhorar a produtividade</t>
+  </si>
+  <si>
+    <t>Facilitar o compartilhamento de dados</t>
+  </si>
+  <si>
+    <t>ES043</t>
+  </si>
+  <si>
+    <t>Engenharia social pode ser usada em conjunto com:</t>
+  </si>
+  <si>
+    <t>Outros tipos de ataques cibernéticos</t>
+  </si>
+  <si>
+    <t>Apenas ataques físicos</t>
+  </si>
+  <si>
+    <t>Apenas ataques de hardware</t>
+  </si>
+  <si>
+    <t>Apenas ataques de software</t>
+  </si>
+  <si>
+    <t>ES044</t>
+  </si>
+  <si>
+    <t>Qual é um exemplo de "phishing de CEO"?</t>
+  </si>
+  <si>
+    <t>E-mail fraudulento se passando por um executivo</t>
+  </si>
+  <si>
+    <t>ES045</t>
+  </si>
+  <si>
+    <t>Quais são os principais alvos de engenharia social?</t>
+  </si>
+  <si>
+    <t>Funcionários de todos os níveis</t>
+  </si>
+  <si>
+    <t>Apenas executivos</t>
+  </si>
+  <si>
+    <t>Apenas técnicos de TI</t>
+  </si>
+  <si>
+    <t>Apenas novos funcionários</t>
+  </si>
+  <si>
+    <t>ES046</t>
+  </si>
+  <si>
+    <t>O que é "water-holing"?</t>
+  </si>
+  <si>
+    <t>Comprometimento de sites que o alvo frequenta</t>
+  </si>
+  <si>
+    <t>ES047</t>
+  </si>
+  <si>
+    <t>Como a confiança é explorada na engenharia social?</t>
+  </si>
+  <si>
+    <t>Construindo relacionamentos para obter informações</t>
+  </si>
+  <si>
+    <t>Instalando antivírus</t>
+  </si>
+  <si>
+    <t>Monitorando redes</t>
+  </si>
+  <si>
+    <t>ES048</t>
+  </si>
+  <si>
+    <t>O que é "shoulder surfing"?</t>
+  </si>
+  <si>
+    <t>Espionagem de informações olhando por cima do ombro</t>
+  </si>
+  <si>
+    <t>Envio de SMS fraudulentos</t>
+  </si>
+  <si>
+    <t>ES049</t>
+  </si>
+  <si>
+    <t>Quais são as técnicas mais comuns de engenharia social?</t>
+  </si>
+  <si>
+    <t>Phishing, pretexting, baiting, tailgating</t>
+  </si>
+  <si>
+    <t>Criptografia, backup, firewall</t>
+  </si>
+  <si>
+    <t>Monitoramento de rede, antivírus</t>
+  </si>
+  <si>
+    <t>Força bruta, hacking, DDoS</t>
+  </si>
+  <si>
+    <t>ES050</t>
+  </si>
+  <si>
+    <t>Engenharia Social</t>
+  </si>
+  <si>
+    <t>Qual técnica envolve a obtenção de informações através de e-mails falsos?</t>
   </si>
 </sst>
 </file>
@@ -1679,10 +2336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A3FCA2-66BC-4607-AD30-1EED3AA5681B}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,2144 +2378,2816 @@
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>190</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>191</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>197</v>
+        <v>248</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>356</v>
+        <v>245</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>357</v>
+        <v>207</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>358</v>
+        <v>208</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>74</v>
+        <v>209</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>359</v>
+        <v>210</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>289</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>290</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>74</v>
+        <v>292</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>259</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>301</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>302</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>303</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>66</v>
+        <v>304</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>305</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>290</v>
+        <v>231</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>291</v>
+        <v>233</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>292</v>
+        <v>117</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>289</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>378</v>
+        <v>107</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>291</v>
+        <v>109</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>292</v>
+        <v>110</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>379</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>253</v>
+        <v>129</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>254</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>256</v>
+        <v>131</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>257</v>
+        <v>133</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>258</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>292</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>339</v>
+        <v>149</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>340</v>
+        <v>150</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>405</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>239</v>
+        <v>286</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>74</v>
+        <v>316</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>240</v>
+        <v>52</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>415</v>
+        <v>274</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>357</v>
+        <v>275</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>358</v>
+        <v>232</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>359</v>
+        <v>277</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>396</v>
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>309</v>
+        <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>310</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>311</v>
+        <v>86</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>312</v>
+        <v>87</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>397</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>217</v>
+        <v>114</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>218</v>
+        <v>115</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>221</v>
+        <v>86</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>330</v>
+        <v>101</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>331</v>
+        <v>102</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>240</v>
+        <v>104</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>273</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>275</v>
+        <v>24</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>276</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>195</v>
+        <v>266</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>384</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>109</v>
+        <v>345</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>12</v>
+        <v>346</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>372</v>
+        <v>195</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>349</v>
+        <v>196</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>72</v>
+        <v>197</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>108</v>
+        <v>309</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>12</v>
+        <v>310</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>109</v>
+        <v>311</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>110</v>
+        <v>243</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>111</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="G26" s="2" t="s">
-        <v>50</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>321</v>
+        <v>8</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>319</v>
+        <v>141</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>365</v>
+        <v>142</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>366</v>
+        <v>143</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>323</v>
+        <v>144</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>367</v>
+        <v>38</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>16</v>
+        <v>226</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>17</v>
+        <v>227</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>19</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>327</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>83</v>
+        <v>328</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>86</v>
+        <v>181</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>398</v>
+        <v>333</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>399</v>
+        <v>334</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>401</v>
+        <v>205</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>402</v>
+        <v>326</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>168</v>
+        <v>333</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>169</v>
+        <v>334</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>172</v>
+        <v>326</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>173</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>233</v>
+        <v>325</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>177</v>
+        <v>326</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>308</v>
+        <v>250</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>310</v>
+        <v>252</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>103</v>
+        <v>252</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>355</v>
+        <v>119</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>234</v>
+        <v>121</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>235</v>
+        <v>122</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>417</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>304</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>305</v>
+        <v>35</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>306</v>
+        <v>38</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>151</v>
+        <v>318</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>152</v>
+        <v>215</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>139</v>
+        <v>93</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>182</v>
+        <v>285</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>326</v>
+        <v>185</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>327</v>
+        <v>186</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>328</v>
+        <v>187</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>404</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>325</v>
+        <v>215</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>327</v>
+        <v>217</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>328</v>
+        <v>161</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>268</v>
+        <v>152</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>270</v>
+        <v>154</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>271</v>
+        <v>155</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>272</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>268</v>
+        <v>350</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>269</v>
+        <v>351</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>215</v>
+        <v>354</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>385</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>386</v>
+        <v>72</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>387</v>
+        <v>73</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>215</v>
+        <v>75</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>385</v>
+        <v>10</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>386</v>
+        <v>11</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>387</v>
+        <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>214</v>
+        <v>13</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>361</v>
+        <v>294</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>362</v>
+        <v>295</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>221</v>
+        <v>297</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>361</v>
+        <v>40</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>362</v>
+        <v>41</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>328</v>
+        <v>42</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>363</v>
+        <v>44</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>380</v>
+        <v>95</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>381</v>
+        <v>96</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>328</v>
+        <v>9</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>363</v>
+        <v>98</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>381</v>
+        <v>313</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>328</v>
+        <v>61</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>221</v>
+        <v>97</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>363</v>
+        <v>9</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>369</v>
+        <v>279</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>370</v>
+        <v>280</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>120</v>
+        <v>281</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>197</v>
+        <v>282</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>245</v>
+        <v>63</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>157</v>
+        <v>201</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>160</v>
+        <v>204</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>409</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>259</v>
+        <v>360</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>260</v>
+        <v>320</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>261</v>
+        <v>321</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>261</v>
+        <v>127</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>389</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>390</v>
+        <v>47</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>391</v>
+        <v>48</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>392</v>
+        <v>49</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>393</v>
+        <v>50</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>281</v>
+        <v>112</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>282</v>
+        <v>113</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>7</v>
+        <v>365</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>26</v>
+        <v>269</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>29</v>
+        <v>271</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>30</v>
+        <v>272</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>116</v>
+        <v>57</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>130</v>
+        <v>16</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>69</v>
+        <v>365</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>250</v>
+        <v>321</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>296</v>
+        <v>63</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>38</v>
+        <v>365</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>58</v>
+        <v>178</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>59</v>
+        <v>179</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>61</v>
+        <v>181</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>637</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>59</v>
+        <v>370</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>7</v>
+        <v>637</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>188</v>
+        <v>372</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>189</v>
+        <v>373</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>133</v>
+        <v>374</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>191</v>
+        <v>375</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>7</v>
+        <v>637</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>32</v>
+        <v>377</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>33</v>
+        <v>378</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>34</v>
+        <v>379</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>35</v>
+        <v>380</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>36</v>
+        <v>381</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>69</v>
+        <v>637</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>88</v>
+        <v>383</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>89</v>
+        <v>384</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>90</v>
+        <v>385</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>91</v>
+        <v>386</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>92</v>
+        <v>387</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>38</v>
+        <v>637</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>162</v>
+        <v>389</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>163</v>
+        <v>390</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>164</v>
+        <v>391</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>165</v>
+        <v>392</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>166</v>
+        <v>393</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>129</v>
+        <v>637</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>145</v>
+        <v>395</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>146</v>
+        <v>396</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>148</v>
+        <v>397</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>149</v>
+        <v>399</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>100</v>
+        <v>637</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>118</v>
+        <v>401</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>119</v>
+        <v>402</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>403</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>121</v>
+        <v>404</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>122</v>
+        <v>405</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>69</v>
+        <v>637</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>287</v>
+        <v>407</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>169</v>
+        <v>408</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>170</v>
+        <v>409</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>171</v>
+        <v>410</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>172</v>
+        <v>411</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>288</v>
+        <v>412</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>38</v>
+        <v>637</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>248</v>
+        <v>413</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>249</v>
+        <v>414</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>250</v>
+        <v>415</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>251</v>
+        <v>416</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>133</v>
+        <v>417</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>252</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>129</v>
+        <v>637</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>249</v>
+        <v>420</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>296</v>
+        <v>422</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>297</v>
+        <v>423</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>69</v>
+        <v>637</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>333</v>
+        <v>425</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>337</v>
+        <v>428</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>100</v>
+        <v>637</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>333</v>
+        <v>430</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>334</v>
+        <v>431</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>335</v>
+        <v>432</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>336</v>
+        <v>433</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>337</v>
+        <v>434</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>38</v>
+        <v>637</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>277</v>
+        <v>436</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>146</v>
+        <v>437</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>278</v>
+        <v>438</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>279</v>
+        <v>439</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>91</v>
+        <v>440</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>280</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>7</v>
+        <v>637</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>314</v>
+        <v>442</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>370</v>
+        <v>443</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>444</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>342</v>
+        <v>445</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>122</v>
+        <v>446</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>38</v>
+        <v>637</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>314</v>
+        <v>448</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>341</v>
+        <v>449</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>450</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>316</v>
+        <v>451</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>317</v>
+        <v>452</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>69</v>
+        <v>637</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>314</v>
+        <v>454</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>315</v>
+        <v>455</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>456</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>316</v>
+        <v>457</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>317</v>
+        <v>458</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>318</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>100</v>
+        <v>637</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>314</v>
+        <v>460</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>341</v>
+        <v>461</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>462</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>342</v>
+        <v>463</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>122</v>
+        <v>464</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>7</v>
+        <v>637</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>223</v>
+        <v>466</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>224</v>
+        <v>467</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>225</v>
+        <v>468</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>226</v>
+        <v>469</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>227</v>
+        <v>470</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>228</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>129</v>
+        <v>637</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>223</v>
+        <v>472</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>224</v>
+        <v>473</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>225</v>
+        <v>474</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>226</v>
+        <v>475</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>227</v>
+        <v>476</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>38</v>
+        <v>637</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>263</v>
+        <v>478</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>264</v>
+        <v>479</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>265</v>
+        <v>480</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>90</v>
+        <v>481</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>266</v>
+        <v>482</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>267</v>
+        <v>483</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>7</v>
+        <v>637</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>205</v>
+        <v>484</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>206</v>
+        <v>485</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>207</v>
+        <v>486</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>208</v>
+        <v>487</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>209</v>
+        <v>488</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>210</v>
+        <v>489</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{B6A3FCA2-66BC-4607-AD30-1EED3AA5681B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G94">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/perguntas.xlsx
+++ b/perguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\perguntas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D489FDA-C9BF-4613-92A7-8F41ABC13517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669B7BAC-462C-4651-8467-69DAD3FEB17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{42F07258-CA02-475C-954F-3907A6AF603F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="906">
   <si>
     <t>Empresa</t>
   </si>
@@ -1954,6 +1954,807 @@
   </si>
   <si>
     <t>Qual técnica envolve a obtenção de informações através de e-mails falsos?</t>
+  </si>
+  <si>
+    <t>Reduzir o tempo de atendimento</t>
+  </si>
+  <si>
+    <t>O horário de atendimento</t>
+  </si>
+  <si>
+    <t>Ignorar a pergunta</t>
+  </si>
+  <si>
+    <t>Ignorar a insatisfação</t>
+  </si>
+  <si>
+    <t>Ignorar a necessidade de escalonamento</t>
+  </si>
+  <si>
+    <t>Qualidade</t>
+  </si>
+  <si>
+    <t>Qual é o principal objetivo ao atender um usuário em um Service Desk?</t>
+  </si>
+  <si>
+    <t>Resolver o problema de forma eficiente e amigável</t>
+  </si>
+  <si>
+    <t>Transferir a chamada para outro setor</t>
+  </si>
+  <si>
+    <t>Encerrar o atendimento rapidamente</t>
+  </si>
+  <si>
+    <t>QP001</t>
+  </si>
+  <si>
+    <t>O que deve ser feito após resolver um chamado?</t>
+  </si>
+  <si>
+    <t>Informar o usuário sobre a pesquisa de satisfação</t>
+  </si>
+  <si>
+    <t>Encerrar sem mais ações</t>
+  </si>
+  <si>
+    <t>Transferir o chamado para um colega</t>
+  </si>
+  <si>
+    <t>Ignorar a pesquisa de satisfação</t>
+  </si>
+  <si>
+    <t>QP002</t>
+  </si>
+  <si>
+    <t>Qual a importância de utilizar o português correto no atendimento?</t>
+  </si>
+  <si>
+    <t>Garantir clareza e profissionalismo</t>
+  </si>
+  <si>
+    <t>Evitar a necessidade de treinamento</t>
+  </si>
+  <si>
+    <t>Não tem importância</t>
+  </si>
+  <si>
+    <t>QP003</t>
+  </si>
+  <si>
+    <t>O que deve ser feito para garantir que todas as informações são registradas corretamente?</t>
+  </si>
+  <si>
+    <t>Registrar todas as informações no sistema</t>
+  </si>
+  <si>
+    <t>Anotar informações em papel</t>
+  </si>
+  <si>
+    <t>Usar apenas e-mails para registro</t>
+  </si>
+  <si>
+    <t>Ignorar registros</t>
+  </si>
+  <si>
+    <t>QP004</t>
+  </si>
+  <si>
+    <t>Como validar a identidade do usuário antes de fornecer informações?</t>
+  </si>
+  <si>
+    <t>Confirmar informações pessoais fornecidas pelo usuário</t>
+  </si>
+  <si>
+    <t>Perguntar por perguntas aleatórias</t>
+  </si>
+  <si>
+    <t>Usar o nome completo do usuário</t>
+  </si>
+  <si>
+    <t>Não é necessário validar</t>
+  </si>
+  <si>
+    <t>QP005</t>
+  </si>
+  <si>
+    <t>O que deve ser fornecido ao usuário ao finalizar um chamado?</t>
+  </si>
+  <si>
+    <t>O número do chamado para acompanhamento</t>
+  </si>
+  <si>
+    <t>O nome do atendente</t>
+  </si>
+  <si>
+    <t>O status do sistema</t>
+  </si>
+  <si>
+    <t>QP006</t>
+  </si>
+  <si>
+    <t>Por que é importante informar ao usuário sobre a pesquisa de satisfação?</t>
+  </si>
+  <si>
+    <t>Para obter feedback sobre o atendimento</t>
+  </si>
+  <si>
+    <t>Para preencher o relatório do dia</t>
+  </si>
+  <si>
+    <t>Para manter contato com o usuário</t>
+  </si>
+  <si>
+    <t>Não é importante</t>
+  </si>
+  <si>
+    <t>QP007</t>
+  </si>
+  <si>
+    <t>Qual é a primeira ação ao atender um novo chamado?</t>
+  </si>
+  <si>
+    <t>Cumprimentar o usuário e identificar o problema</t>
+  </si>
+  <si>
+    <t>Transferir imediatamente</t>
+  </si>
+  <si>
+    <t>Solicitar a senha do sistema</t>
+  </si>
+  <si>
+    <t>QP008</t>
+  </si>
+  <si>
+    <t>Como deve ser o tom de voz ao atender um usuário?</t>
+  </si>
+  <si>
+    <t>Amigável e profissional</t>
+  </si>
+  <si>
+    <t>Frio e impessoal</t>
+  </si>
+  <si>
+    <t>Apressado</t>
+  </si>
+  <si>
+    <t>Desleixado</t>
+  </si>
+  <si>
+    <t>QP009</t>
+  </si>
+  <si>
+    <t>O que é essencial para um bom atendimento em um Service Desk?</t>
+  </si>
+  <si>
+    <t>Escuta ativa e resolução eficiente do problema</t>
+  </si>
+  <si>
+    <t>Solução rápida sem verificação</t>
+  </si>
+  <si>
+    <t>Transferir chamadas sem solução</t>
+  </si>
+  <si>
+    <t>Evitar contato direto com o usuário</t>
+  </si>
+  <si>
+    <t>QP010</t>
+  </si>
+  <si>
+    <t>Como deve ser o processo de acompanhamento de um chamado?</t>
+  </si>
+  <si>
+    <t>Verificar o status do chamado e informar o usuário</t>
+  </si>
+  <si>
+    <t>Ignorar o chamado após a solução</t>
+  </si>
+  <si>
+    <t>Transferir para outro setor</t>
+  </si>
+  <si>
+    <t>Encerrar sem verificar o resultado</t>
+  </si>
+  <si>
+    <t>QP011</t>
+  </si>
+  <si>
+    <t>O que fazer se não souber a resposta para uma pergunta do usuário?</t>
+  </si>
+  <si>
+    <t>Informar que irá buscar a resposta e retornar</t>
+  </si>
+  <si>
+    <t>Dar uma resposta incerta</t>
+  </si>
+  <si>
+    <t>Transferir o chamado sem verificar</t>
+  </si>
+  <si>
+    <t>QP012</t>
+  </si>
+  <si>
+    <t>Como deve ser feita a comunicação sobre o prazo de resolução?</t>
+  </si>
+  <si>
+    <t>Informar um prazo realista e seguir o acompanhamento</t>
+  </si>
+  <si>
+    <t>Prometer uma resolução imediata</t>
+  </si>
+  <si>
+    <t>Evitar dar prazos</t>
+  </si>
+  <si>
+    <t>Ignorar o prazo</t>
+  </si>
+  <si>
+    <t>QP013</t>
+  </si>
+  <si>
+    <t>Qual é a importância de manter um registro detalhado dos chamados?</t>
+  </si>
+  <si>
+    <t>Facilitar o acompanhamento e análise de desempenho</t>
+  </si>
+  <si>
+    <t>Apenas para fins de relatório</t>
+  </si>
+  <si>
+    <t>Para preencher formulários</t>
+  </si>
+  <si>
+    <t>QP014</t>
+  </si>
+  <si>
+    <t>O que fazer se o usuário não fornecer todas as informações necessárias?</t>
+  </si>
+  <si>
+    <t>Solicitar educadamente as informações faltantes</t>
+  </si>
+  <si>
+    <t>Continuar o atendimento sem completar</t>
+  </si>
+  <si>
+    <t>Encerrar o atendimento</t>
+  </si>
+  <si>
+    <t>Ignorar as informações faltantes</t>
+  </si>
+  <si>
+    <t>QP015</t>
+  </si>
+  <si>
+    <t>Como garantir que o atendimento seja feito de acordo com os padrões de qualidade?</t>
+  </si>
+  <si>
+    <t>Seguir os procedimentos e diretrizes estabelecidos</t>
+  </si>
+  <si>
+    <t>Agir de acordo com o que acha certo</t>
+  </si>
+  <si>
+    <t>Evitar seguir o script</t>
+  </si>
+  <si>
+    <t>Ignorar as diretrizes</t>
+  </si>
+  <si>
+    <t>QP016</t>
+  </si>
+  <si>
+    <t>Qual é a atitude correta se um usuário estiver insatisfeito?</t>
+  </si>
+  <si>
+    <t>Ouvir suas reclamações e tentar resolver o problema</t>
+  </si>
+  <si>
+    <t>Ignorar as reclamações</t>
+  </si>
+  <si>
+    <t>QP017</t>
+  </si>
+  <si>
+    <t>Como deve ser tratado um chamado que envolve um problema recorrente?</t>
+  </si>
+  <si>
+    <t>Analisar o histórico e buscar uma solução permanente</t>
+  </si>
+  <si>
+    <t>Tratar o problema apenas temporariamente</t>
+  </si>
+  <si>
+    <t>Transferir o chamado para outro setor</t>
+  </si>
+  <si>
+    <t>Ignorar o histórico</t>
+  </si>
+  <si>
+    <t>QP018</t>
+  </si>
+  <si>
+    <t>O que fazer se um usuário solicitar uma informação que você não tem?</t>
+  </si>
+  <si>
+    <t>Buscar a informação e retornar com a resposta</t>
+  </si>
+  <si>
+    <t>Dizer que não pode ajudar</t>
+  </si>
+  <si>
+    <t>QP019</t>
+  </si>
+  <si>
+    <t>Qual é o procedimento correto para atualizar um chamado?</t>
+  </si>
+  <si>
+    <t>Atualizar o status e adicionar notas relevantes</t>
+  </si>
+  <si>
+    <t>Ignorar as atualizações</t>
+  </si>
+  <si>
+    <t>Atualizar apenas o status</t>
+  </si>
+  <si>
+    <t>Não registrar as atualizações</t>
+  </si>
+  <si>
+    <t>QP020</t>
+  </si>
+  <si>
+    <t>Por que é importante seguir os procedimentos padrão de atendimento?</t>
+  </si>
+  <si>
+    <t>Para garantir consistência e qualidade no serviço</t>
+  </si>
+  <si>
+    <t>Para cumprir exigências administrativas</t>
+  </si>
+  <si>
+    <t>Para evitar problemas com usuários</t>
+  </si>
+  <si>
+    <t>Para aumentar o tempo de atendimento</t>
+  </si>
+  <si>
+    <t>QP021</t>
+  </si>
+  <si>
+    <t>Como tratar um usuário que está reclamando de um serviço lento?</t>
+  </si>
+  <si>
+    <t>Pedir desculpas e explicar a situação</t>
+  </si>
+  <si>
+    <t>Encerrar o atendimento sem resposta</t>
+  </si>
+  <si>
+    <t>QP022</t>
+  </si>
+  <si>
+    <t>O que deve ser feito ao lidar com informações confidenciais?</t>
+  </si>
+  <si>
+    <t>Manter a confidencialidade e seguir políticas de segurança</t>
+  </si>
+  <si>
+    <t>Armazenar em locais não seguros</t>
+  </si>
+  <si>
+    <t>Ignorar a confidencialidade</t>
+  </si>
+  <si>
+    <t>QP023</t>
+  </si>
+  <si>
+    <t>Como garantir que a solução proposta resolva o problema do usuário?</t>
+  </si>
+  <si>
+    <t>Confirmar com o usuário se o problema foi resolvido</t>
+  </si>
+  <si>
+    <t>Encerrar o chamado sem verificar</t>
+  </si>
+  <si>
+    <t>Ignorar a confirmação</t>
+  </si>
+  <si>
+    <t>QP024</t>
+  </si>
+  <si>
+    <t>Qual é o papel do feedback do usuário no processo de qualidade?</t>
+  </si>
+  <si>
+    <t>Melhorar o atendimento e os processos internos</t>
+  </si>
+  <si>
+    <t>Apenas para estatísticas</t>
+  </si>
+  <si>
+    <t>QP025</t>
+  </si>
+  <si>
+    <t>O que é importante considerar ao comunicar com usuários não técnicos?</t>
+  </si>
+  <si>
+    <t>Usar uma linguagem simples e acessível</t>
+  </si>
+  <si>
+    <t>Usar jargões técnicos</t>
+  </si>
+  <si>
+    <t>Evitar comunicação direta</t>
+  </si>
+  <si>
+    <t>Ignorar a complexidade</t>
+  </si>
+  <si>
+    <t>QP026</t>
+  </si>
+  <si>
+    <t>Qual é a prática recomendada ao transferir um chamado para outro setor?</t>
+  </si>
+  <si>
+    <t>Informar o usuário sobre a transferência e o novo contato</t>
+  </si>
+  <si>
+    <t>Transferir sem informar o usuário</t>
+  </si>
+  <si>
+    <t>Ignorar o histórico do chamado</t>
+  </si>
+  <si>
+    <t>Transferir sem verificar o contexto</t>
+  </si>
+  <si>
+    <t>QP027</t>
+  </si>
+  <si>
+    <t>Como deve ser o processo de fechamento de um chamado?</t>
+  </si>
+  <si>
+    <t>Confirmar a solução com o usuário e documentar o fechamento</t>
+  </si>
+  <si>
+    <t>Encerrar sem confirmação</t>
+  </si>
+  <si>
+    <t>Ignorar o fechamento</t>
+  </si>
+  <si>
+    <t>QP028</t>
+  </si>
+  <si>
+    <t>Qual é a importância de manter um tom de voz profissional e cortês?</t>
+  </si>
+  <si>
+    <t>Para criar uma boa impressão e assegurar um bom atendimento</t>
+  </si>
+  <si>
+    <t>Para economizar tempo</t>
+  </si>
+  <si>
+    <t>Para evitar problemas com colegas</t>
+  </si>
+  <si>
+    <t>Para ser mais eficiente</t>
+  </si>
+  <si>
+    <t>QP029</t>
+  </si>
+  <si>
+    <t>O que fazer se um usuário não seguir as instruções fornecidas?</t>
+  </si>
+  <si>
+    <t>Fornecer instruções adicionais e esclarecer dúvidas</t>
+  </si>
+  <si>
+    <t>Ignorar as instruções</t>
+  </si>
+  <si>
+    <t>QP030</t>
+  </si>
+  <si>
+    <t>Qual é a abordagem correta para tratar um chamado urgente?</t>
+  </si>
+  <si>
+    <t>Priorizar e resolver com a maior brevidade possível</t>
+  </si>
+  <si>
+    <t>Ignorar a urgência</t>
+  </si>
+  <si>
+    <t>Transferir o chamado imediatamente</t>
+  </si>
+  <si>
+    <t>Encerrar sem solução</t>
+  </si>
+  <si>
+    <t>QP031</t>
+  </si>
+  <si>
+    <t>Como deve ser tratada uma reclamação sobre o atendimento recebido?</t>
+  </si>
+  <si>
+    <t>Ouvir e resolver a reclamação de maneira adequada</t>
+  </si>
+  <si>
+    <t>QP032</t>
+  </si>
+  <si>
+    <t>O que deve ser feito ao receber um chamado fora do horário de expediente?</t>
+  </si>
+  <si>
+    <t>Informar o usuário sobre o horário de atendimento</t>
+  </si>
+  <si>
+    <t>Ignorar o chamado</t>
+  </si>
+  <si>
+    <t>QP033</t>
+  </si>
+  <si>
+    <t>Como deve ser o registro de chamadas?</t>
+  </si>
+  <si>
+    <t>Detalhado e preciso, incluindo todas as informações</t>
+  </si>
+  <si>
+    <t>Apenas anotar o problema principal</t>
+  </si>
+  <si>
+    <t>Registrar apenas o status</t>
+  </si>
+  <si>
+    <t>Ignorar detalhes</t>
+  </si>
+  <si>
+    <t>QP034</t>
+  </si>
+  <si>
+    <t>Qual é a prática recomendada ao lidar com usuários frustrados?</t>
+  </si>
+  <si>
+    <t>Manter a calma e ser empático</t>
+  </si>
+  <si>
+    <t>Ignorar a frustração</t>
+  </si>
+  <si>
+    <t>QP035</t>
+  </si>
+  <si>
+    <t>Como deve ser tratado um chamado que envolve múltiplos problemas?</t>
+  </si>
+  <si>
+    <t>Identificar e priorizar cada problema separadamente</t>
+  </si>
+  <si>
+    <t>Resolver apenas o primeiro problema</t>
+  </si>
+  <si>
+    <t>Ignorar problemas adicionais</t>
+  </si>
+  <si>
+    <t>QP036</t>
+  </si>
+  <si>
+    <t>Qual é o impacto de não registrar informações corretamente?</t>
+  </si>
+  <si>
+    <t>Pode causar problemas na resolução e análise futura</t>
+  </si>
+  <si>
+    <t>Não tem impacto</t>
+  </si>
+  <si>
+    <t>Aumenta o tempo de atendimento</t>
+  </si>
+  <si>
+    <t>Melhora a eficiência</t>
+  </si>
+  <si>
+    <t>QP037</t>
+  </si>
+  <si>
+    <t>O que fazer se um usuário fornecer informações incorretas?</t>
+  </si>
+  <si>
+    <t>Corrigir as informações e verificar a precisão</t>
+  </si>
+  <si>
+    <t>Ignorar as informações fornecidas</t>
+  </si>
+  <si>
+    <t>QP038</t>
+  </si>
+  <si>
+    <t>Como lidar com um chamado que requer escalonamento?</t>
+  </si>
+  <si>
+    <t>Seguir os procedimentos de escalonamento e informar o usuário</t>
+  </si>
+  <si>
+    <t>Transferir sem seguir os procedimentos</t>
+  </si>
+  <si>
+    <t>Encerrar sem escalonar</t>
+  </si>
+  <si>
+    <t>QP039</t>
+  </si>
+  <si>
+    <t>Qual é a importância de fornecer um resumo claro e preciso ao encerrar um chamado?</t>
+  </si>
+  <si>
+    <t>Facilitar a compreensão do usuário sobre a solução</t>
+  </si>
+  <si>
+    <t>Apenas para fins de registro</t>
+  </si>
+  <si>
+    <t>Para preencher o relatório</t>
+  </si>
+  <si>
+    <t>QP040</t>
+  </si>
+  <si>
+    <t>Como deve ser o processo de documentação de soluções e procedimentos?</t>
+  </si>
+  <si>
+    <t>Detalhado e acessível para consulta futura</t>
+  </si>
+  <si>
+    <t>Apenas básico e informal</t>
+  </si>
+  <si>
+    <t>Ignorar a documentação</t>
+  </si>
+  <si>
+    <t>Registrar apenas soluções principais</t>
+  </si>
+  <si>
+    <t>QP041</t>
+  </si>
+  <si>
+    <t>Qual é o papel da empatia no atendimento ao usuário?</t>
+  </si>
+  <si>
+    <t>Melhorar a experiência do usuário e resolver conflitos</t>
+  </si>
+  <si>
+    <t>Apenas para agradar o usuário</t>
+  </si>
+  <si>
+    <t>QP042</t>
+  </si>
+  <si>
+    <t>O que fazer se o usuário não estiver satisfeito com a solução proposta?</t>
+  </si>
+  <si>
+    <t>Buscar uma solução alternativa ou escalonar o problema</t>
+  </si>
+  <si>
+    <t>Transferir sem verificar</t>
+  </si>
+  <si>
+    <t>QP043</t>
+  </si>
+  <si>
+    <t>Como garantir que o atendimento é consistente?</t>
+  </si>
+  <si>
+    <t>Seguir os padrões e procedimentos estabelecidos</t>
+  </si>
+  <si>
+    <t>Adaptar-se a cada situação</t>
+  </si>
+  <si>
+    <t>Usar o julgamento pessoal</t>
+  </si>
+  <si>
+    <t>Ignorar os procedimentos</t>
+  </si>
+  <si>
+    <t>QP044</t>
+  </si>
+  <si>
+    <t>Qual é a prática recomendada ao lidar com múltiplos chamados simultaneamente?</t>
+  </si>
+  <si>
+    <t>Priorizar e gerenciar o tempo eficientemente</t>
+  </si>
+  <si>
+    <t>Atender um chamado de cada vez</t>
+  </si>
+  <si>
+    <t>Ignorar chamados menos urgentes</t>
+  </si>
+  <si>
+    <t>Transferir todos os chamados</t>
+  </si>
+  <si>
+    <t>QP045</t>
+  </si>
+  <si>
+    <t>Como deve ser o processo de revisão de chamados após a resolução?</t>
+  </si>
+  <si>
+    <t>Verificar a solução e atualizar a documentação</t>
+  </si>
+  <si>
+    <t>Ignorar a revisão</t>
+  </si>
+  <si>
+    <t>Apenas atualizar o status</t>
+  </si>
+  <si>
+    <t>Encerrar sem revisão</t>
+  </si>
+  <si>
+    <t>QP046</t>
+  </si>
+  <si>
+    <t>O que fazer se um usuário insistir em uma solução que você sabe que não é viável?</t>
+  </si>
+  <si>
+    <t>Explicar educadamente por que a solução não é viável</t>
+  </si>
+  <si>
+    <t>Ignorar a sugestão do usuário</t>
+  </si>
+  <si>
+    <t>Forçar a solução proposta</t>
+  </si>
+  <si>
+    <t>QP047</t>
+  </si>
+  <si>
+    <t>Qual é o impacto de um atendimento não documentado?</t>
+  </si>
+  <si>
+    <t>Pode causar problemas na resolução e na análise futura</t>
+  </si>
+  <si>
+    <t>Apenas atraso na resolução</t>
+  </si>
+  <si>
+    <t>Não há impacto</t>
+  </si>
+  <si>
+    <t>QP048</t>
+  </si>
+  <si>
+    <t>O que é importante considerar ao fornecer suporte técnico?</t>
+  </si>
+  <si>
+    <t>Usar uma linguagem clara e fornecer instruções precisas</t>
+  </si>
+  <si>
+    <t>Fornecer suporte apenas por e-mail</t>
+  </si>
+  <si>
+    <t>Ignorar a dúvida do usuário</t>
+  </si>
+  <si>
+    <t>QP049</t>
+  </si>
+  <si>
+    <t>Como lidar com um usuário que tem uma expectativa irreal sobre o tempo de resolução?</t>
+  </si>
+  <si>
+    <t>Explicar o prazo realista e o processo de resolução</t>
+  </si>
+  <si>
+    <t>Ignorar a expectativa</t>
+  </si>
+  <si>
+    <t>Prometer uma solução imediata</t>
+  </si>
+  <si>
+    <t>QP050</t>
   </si>
 </sst>
 </file>
@@ -2336,10 +3137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A3FCA2-66BC-4607-AD30-1EED3AA5681B}">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B113" sqref="B113"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B125" sqref="B125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5182,6 +5983,1156 @@
         <v>636</v>
       </c>
     </row>
+    <row r="124" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{B6A3FCA2-66BC-4607-AD30-1EED3AA5681B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G94">

--- a/perguntas.xlsx
+++ b/perguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\perguntas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669B7BAC-462C-4651-8467-69DAD3FEB17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D080EE25-0985-41CB-9D2E-7D89EBA05AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{42F07258-CA02-475C-954F-3907A6AF603F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1211" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1141">
   <si>
     <t>Empresa</t>
   </si>
@@ -2755,6 +2755,711 @@
   </si>
   <si>
     <t>QP050</t>
+  </si>
+  <si>
+    <t>O que é um IP?</t>
+  </si>
+  <si>
+    <t>Um endereço de rede único para um dispositivo</t>
+  </si>
+  <si>
+    <t>Um tipo de software antivírus</t>
+  </si>
+  <si>
+    <t>Uma unidade de armazenamento</t>
+  </si>
+  <si>
+    <t>Um sistema operacional</t>
+  </si>
+  <si>
+    <t>O que é phishing?</t>
+  </si>
+  <si>
+    <t>Um ataque para obter informações sensíveis</t>
+  </si>
+  <si>
+    <t>Um tipo de software de segurança</t>
+  </si>
+  <si>
+    <t>Um método de backup</t>
+  </si>
+  <si>
+    <t>Uma técnica de programação</t>
+  </si>
+  <si>
+    <t>Qual é a função do DNS?</t>
+  </si>
+  <si>
+    <t>Traduz nomes de domínio em endereços IP</t>
+  </si>
+  <si>
+    <t>Armazena arquivos temporários</t>
+  </si>
+  <si>
+    <t>Protege contra malware</t>
+  </si>
+  <si>
+    <t>Monitora a rede para intrusões</t>
+  </si>
+  <si>
+    <t>O que significa a sigla VPN?</t>
+  </si>
+  <si>
+    <t>Rede Privada Virtual</t>
+  </si>
+  <si>
+    <t>Rede Pessoal Normal</t>
+  </si>
+  <si>
+    <t>Protocolo de Navegação Privada</t>
+  </si>
+  <si>
+    <t>Variável de Porta de Rede</t>
+  </si>
+  <si>
+    <t>O que é um firewall?</t>
+  </si>
+  <si>
+    <t>Um sistema de segurança de rede</t>
+  </si>
+  <si>
+    <t>Um tipo de vírus</t>
+  </si>
+  <si>
+    <t>Um software de processamento de texto</t>
+  </si>
+  <si>
+    <t>Uma ferramenta de design gráfico</t>
+  </si>
+  <si>
+    <t>O que faz o comando "ping"?</t>
+  </si>
+  <si>
+    <t>Verifica a conectividade de rede</t>
+  </si>
+  <si>
+    <t>Instala software de segurança</t>
+  </si>
+  <si>
+    <t>Reconfigura a rede local</t>
+  </si>
+  <si>
+    <t>Atualiza o sistema operacional</t>
+  </si>
+  <si>
+    <t>O que é uma CPU?</t>
+  </si>
+  <si>
+    <t>Unidade Central de Processamento</t>
+  </si>
+  <si>
+    <t>Unidade de Controle de Programa</t>
+  </si>
+  <si>
+    <t>Unidade de Conexão de Periféricos</t>
+  </si>
+  <si>
+    <t>Unidade de Cálculo de Programa</t>
+  </si>
+  <si>
+    <t>O que é um malware?</t>
+  </si>
+  <si>
+    <t>Software malicioso</t>
+  </si>
+  <si>
+    <t>Software antivírus</t>
+  </si>
+  <si>
+    <t>Sistema operacional</t>
+  </si>
+  <si>
+    <t>Aplicativo de produtividade</t>
+  </si>
+  <si>
+    <t>O que é um backup?</t>
+  </si>
+  <si>
+    <t>Cópia de segurança de dados</t>
+  </si>
+  <si>
+    <t>Atualização de sistema</t>
+  </si>
+  <si>
+    <t>Processo de desinstalação de software</t>
+  </si>
+  <si>
+    <t>Recuperação de senha</t>
+  </si>
+  <si>
+    <t>O que é uma URL?</t>
+  </si>
+  <si>
+    <t>Endereço de um site na web</t>
+  </si>
+  <si>
+    <t>Um tipo de antivírus</t>
+  </si>
+  <si>
+    <t>Um software de e-mail</t>
+  </si>
+  <si>
+    <t>O que significa a sigla HTTP?</t>
+  </si>
+  <si>
+    <t>Protocolo de Transferência de Hipertexto</t>
+  </si>
+  <si>
+    <t>Protocolo de Rede de Dados</t>
+  </si>
+  <si>
+    <t>Protocolo de Comunicação Segura</t>
+  </si>
+  <si>
+    <t>Protocolo de Transferência de Arquivos</t>
+  </si>
+  <si>
+    <t>O que é um driver?</t>
+  </si>
+  <si>
+    <t>Software que permite o funcionamento de hardware</t>
+  </si>
+  <si>
+    <t>Um programa de edição de texto</t>
+  </si>
+  <si>
+    <t>Um componente de rede</t>
+  </si>
+  <si>
+    <t>O que faz o comando "ipconfig"?</t>
+  </si>
+  <si>
+    <t>Exibe informações de configuração de rede</t>
+  </si>
+  <si>
+    <t>Reinicia o computador</t>
+  </si>
+  <si>
+    <t>Instala um novo driver</t>
+  </si>
+  <si>
+    <t>Faz backup dos dados</t>
+  </si>
+  <si>
+    <t>O que é a nuvem?</t>
+  </si>
+  <si>
+    <t>Armazenamento e serviços oferecidos pela internet</t>
+  </si>
+  <si>
+    <t>Uma nova versão do Windows</t>
+  </si>
+  <si>
+    <t>Um tipo de hardware</t>
+  </si>
+  <si>
+    <t>Um software de segurança</t>
+  </si>
+  <si>
+    <t>Qual é o propósito do antivírus?</t>
+  </si>
+  <si>
+    <t>Detectar e remover malware</t>
+  </si>
+  <si>
+    <t>Armazenar arquivos temporários</t>
+  </si>
+  <si>
+    <t>Atualizar drivers de hardware</t>
+  </si>
+  <si>
+    <t>Monitorar tráfego de rede</t>
+  </si>
+  <si>
+    <t>O que é um vírus de computador?</t>
+  </si>
+  <si>
+    <t>Um software que se replica e infecta sistemas</t>
+  </si>
+  <si>
+    <t>Um software de backup</t>
+  </si>
+  <si>
+    <t>Uma ferramenta de design</t>
+  </si>
+  <si>
+    <t>O que é a autenticação multifator?</t>
+  </si>
+  <si>
+    <t>Método de segurança que usa mais de uma verificação</t>
+  </si>
+  <si>
+    <t>Técnica de codificação de dados</t>
+  </si>
+  <si>
+    <t>Método de compactação de arquivos</t>
+  </si>
+  <si>
+    <t>Processo de recuperação de senha</t>
+  </si>
+  <si>
+    <t>O que é um sistema operacional?</t>
+  </si>
+  <si>
+    <t>Software que gerencia hardware e software</t>
+  </si>
+  <si>
+    <t>Um programa de edição de vídeo</t>
+  </si>
+  <si>
+    <t>O que é uma LAN?</t>
+  </si>
+  <si>
+    <t>Rede Local de Área</t>
+  </si>
+  <si>
+    <t>Rede Longa de Área</t>
+  </si>
+  <si>
+    <t>Rede Larga de Acesso</t>
+  </si>
+  <si>
+    <t>Rede Limitada de Área</t>
+  </si>
+  <si>
+    <t>Qual a função do sistema de gerenciamento de rede?</t>
+  </si>
+  <si>
+    <t>Monitorar e controlar a rede</t>
+  </si>
+  <si>
+    <t>Atualizar softwares de aplicativos</t>
+  </si>
+  <si>
+    <t>Armazenar dados de usuários</t>
+  </si>
+  <si>
+    <t>Configurar novos dispositivos</t>
+  </si>
+  <si>
+    <t>O que é um protocolo de comunicação?</t>
+  </si>
+  <si>
+    <t>Conjunto de regras para transmissão de dados</t>
+  </si>
+  <si>
+    <t>Tipo de software de antivírus</t>
+  </si>
+  <si>
+    <t>Método de armazenamento de dados</t>
+  </si>
+  <si>
+    <t>Estrutura de banco de dados</t>
+  </si>
+  <si>
+    <t>O que é uma senha forte?</t>
+  </si>
+  <si>
+    <t>Uma senha com letras, números e símbolos</t>
+  </si>
+  <si>
+    <t>Uma senha de 4 dígitos</t>
+  </si>
+  <si>
+    <t>Uma senha que é fácil de lembrar</t>
+  </si>
+  <si>
+    <t>Uma senha que não muda</t>
+  </si>
+  <si>
+    <t>O que é um software de gerenciamento de senhas?</t>
+  </si>
+  <si>
+    <t>Programa que armazena e organiza senhas</t>
+  </si>
+  <si>
+    <t>Ferramenta para desinstalar aplicativos</t>
+  </si>
+  <si>
+    <t>Programa para editar textos</t>
+  </si>
+  <si>
+    <t>Software de backup</t>
+  </si>
+  <si>
+    <t>O que faz o comando "tracert"?</t>
+  </si>
+  <si>
+    <t>Rastreia o caminho dos pacotes de dados na rede</t>
+  </si>
+  <si>
+    <t>Reconfigura o IP do computador</t>
+  </si>
+  <si>
+    <t>Instala atualizações de sistema</t>
+  </si>
+  <si>
+    <t>Verifica a integridade dos arquivos</t>
+  </si>
+  <si>
+    <t>O que é um endpoint?</t>
+  </si>
+  <si>
+    <t>Qualquer dispositivo conectado à rede</t>
+  </si>
+  <si>
+    <t>Um software de antivírus</t>
+  </si>
+  <si>
+    <t>Um tipo de hardware de armazenamento</t>
+  </si>
+  <si>
+    <t>Uma unidade de impressão</t>
+  </si>
+  <si>
+    <t>O que é uma atualização de firmware?</t>
+  </si>
+  <si>
+    <t>Atualização do software embutido em hardware</t>
+  </si>
+  <si>
+    <t>Atualização do sistema operacional</t>
+  </si>
+  <si>
+    <t>Instalação de novos aplicativos</t>
+  </si>
+  <si>
+    <t>Atualização de software de segurança</t>
+  </si>
+  <si>
+    <t>Qual é o propósito da criptografia?</t>
+  </si>
+  <si>
+    <t>Proteger dados contra acesso não autorizado</t>
+  </si>
+  <si>
+    <t>Aumentar a velocidade da rede</t>
+  </si>
+  <si>
+    <t>Reduzir o tamanho dos arquivos</t>
+  </si>
+  <si>
+    <t>O que é um servidor?</t>
+  </si>
+  <si>
+    <t>Computador que fornece serviços para outros computadores</t>
+  </si>
+  <si>
+    <t>Um dispositivo de armazenamento externo</t>
+  </si>
+  <si>
+    <t>Um componente da rede local</t>
+  </si>
+  <si>
+    <t>O que é um banco de dados?</t>
+  </si>
+  <si>
+    <t>Sistema para armazenar e gerenciar dados</t>
+  </si>
+  <si>
+    <t>Tipo de malware</t>
+  </si>
+  <si>
+    <t>Dispositivo de rede</t>
+  </si>
+  <si>
+    <t>O que faz o comando "netstat"?</t>
+  </si>
+  <si>
+    <t>Exibe as conexões de rede e portas abertas</t>
+  </si>
+  <si>
+    <t>Reinicia o serviço de rede</t>
+  </si>
+  <si>
+    <t>Atualiza drivers de rede</t>
+  </si>
+  <si>
+    <t>Verifica o status de hardware</t>
+  </si>
+  <si>
+    <t>O que é a engenharia social?</t>
+  </si>
+  <si>
+    <t>Manipulação de pessoas para obter informações</t>
+  </si>
+  <si>
+    <t>Técnica de otimização de hardware</t>
+  </si>
+  <si>
+    <t>Método de criptografia de dados</t>
+  </si>
+  <si>
+    <t>O que é uma falha de segurança?</t>
+  </si>
+  <si>
+    <t>Vulnerabilidade que pode ser explorada por atacantes</t>
+  </si>
+  <si>
+    <t>Um erro de software inofensivo</t>
+  </si>
+  <si>
+    <t>Uma atualização de sistema mal executada</t>
+  </si>
+  <si>
+    <t>Um problema de conexão de rede</t>
+  </si>
+  <si>
+    <t>O que é um patch?</t>
+  </si>
+  <si>
+    <t>Atualização de software para corrigir falhas</t>
+  </si>
+  <si>
+    <t>Ferramenta de edição de imagem</t>
+  </si>
+  <si>
+    <t>Unidade de armazenamento externa</t>
+  </si>
+  <si>
+    <t>O que é uma conexão SSL?</t>
+  </si>
+  <si>
+    <t>Criptografia para segurança de dados em transações web</t>
+  </si>
+  <si>
+    <t>Tipo de software antivírus</t>
+  </si>
+  <si>
+    <t>Método de compressão de arquivos</t>
+  </si>
+  <si>
+    <t>Ferramenta de monitoramento de rede</t>
+  </si>
+  <si>
+    <t>O que é uma vulnerabilidade?</t>
+  </si>
+  <si>
+    <t>Ponto fraco que pode ser explorado por atacantes</t>
+  </si>
+  <si>
+    <t>Técnica de recuperação de dados</t>
+  </si>
+  <si>
+    <t>Método de proteção de rede</t>
+  </si>
+  <si>
+    <t>O que é um ataque DDoS?</t>
+  </si>
+  <si>
+    <t>Ataque que sobrecarrega um sistema com tráfego</t>
+  </si>
+  <si>
+    <t>Ataque que visa obter dados pessoais</t>
+  </si>
+  <si>
+    <t>Método de hackeamento de senhas</t>
+  </si>
+  <si>
+    <t>Técnica de engenharia social</t>
+  </si>
+  <si>
+    <t>O que é uma rede Wi-Fi?</t>
+  </si>
+  <si>
+    <t>Rede sem fio que usa rádio para comunicação</t>
+  </si>
+  <si>
+    <t>Rede com fio de alta velocidade</t>
+  </si>
+  <si>
+    <t>Sistema de backup de dados</t>
+  </si>
+  <si>
+    <t>O que é um malware ransomware?</t>
+  </si>
+  <si>
+    <t>Tipo de malware que bloqueia o acesso a dados e exige pagamento</t>
+  </si>
+  <si>
+    <t>Tipo de vírus que se replica</t>
+  </si>
+  <si>
+    <t>Software que corrige falhas de sistema</t>
+  </si>
+  <si>
+    <t>Programa para gerenciamento de arquivos</t>
+  </si>
+  <si>
+    <t>O que faz um sistema de controle de acesso?</t>
+  </si>
+  <si>
+    <t>Gerencia quem pode acessar certos recursos ou dados</t>
+  </si>
+  <si>
+    <t>Armazena dados de usuários</t>
+  </si>
+  <si>
+    <t>Atualiza softwares de sistema</t>
+  </si>
+  <si>
+    <t>Monitora tráfego de rede</t>
+  </si>
+  <si>
+    <t>O que é um arquivo de log?</t>
+  </si>
+  <si>
+    <t>Registro de eventos e atividades do sistema</t>
+  </si>
+  <si>
+    <t>Ferramenta de segurança de rede</t>
+  </si>
+  <si>
+    <t>Aplicativo de design gráfico</t>
+  </si>
+  <si>
+    <t>O que é um roteador?</t>
+  </si>
+  <si>
+    <t>Dispositivo que encaminha pacotes de dados entre redes</t>
+  </si>
+  <si>
+    <t>Unidade de armazenamento de dados</t>
+  </si>
+  <si>
+    <t>Componente de impressão</t>
+  </si>
+  <si>
+    <t>O que é uma conta de usuário?</t>
+  </si>
+  <si>
+    <t>Identidade que fornece acesso a sistemas e dados</t>
+  </si>
+  <si>
+    <t>Tipo de hardware de rede</t>
+  </si>
+  <si>
+    <t>Ferramenta de backup</t>
+  </si>
+  <si>
+    <t>O que faz o comando "chkdsk"?</t>
+  </si>
+  <si>
+    <t>Verifica e corrige erros no disco rígido</t>
+  </si>
+  <si>
+    <t>Atualiza drivers de hardware</t>
+  </si>
+  <si>
+    <t>Faz backup de dados</t>
+  </si>
+  <si>
+    <t>O que é uma política de segurança?</t>
+  </si>
+  <si>
+    <t>Conjunto de regras para proteger recursos e dados</t>
+  </si>
+  <si>
+    <t>Método de desinstalação de software</t>
+  </si>
+  <si>
+    <t>Ferramenta para otimização de hardware</t>
+  </si>
+  <si>
+    <t>O que é um endereço MAC?</t>
+  </si>
+  <si>
+    <t>Identificador único para um dispositivo de rede</t>
+  </si>
+  <si>
+    <t>Tipo de software de segurança</t>
+  </si>
+  <si>
+    <t>Endereço IP local</t>
+  </si>
+  <si>
+    <t>Método de criptografia</t>
+  </si>
+  <si>
+    <t>O que é uma VPN?</t>
+  </si>
+  <si>
+    <t>Rede privada que protege e criptografa a conexão de internet</t>
+  </si>
+  <si>
+    <t>Tipo de software de gerenciamento de arquivos</t>
+  </si>
+  <si>
+    <t>Unidade de armazenamento externo</t>
+  </si>
+  <si>
+    <t>Ferramenta de backup de dados</t>
+  </si>
+  <si>
+    <t>O que é uma conexão por cabo Ethernet?</t>
+  </si>
+  <si>
+    <t>Conexão de rede física com fio</t>
+  </si>
+  <si>
+    <t>Tipo de conexão sem fio</t>
+  </si>
+  <si>
+    <t>Ferramenta de recuperação de arquivos</t>
+  </si>
+  <si>
+    <t>O que é um endpoint de segurança?</t>
+  </si>
+  <si>
+    <t>Dispositivo protegido contra ameaças de segurança</t>
+  </si>
+  <si>
+    <t>Ferramenta de gerenciamento de arquivos</t>
+  </si>
+  <si>
+    <t>Método de backup de dados</t>
+  </si>
+  <si>
+    <t>O que é uma falha crítica?</t>
+  </si>
+  <si>
+    <t>Problema que causa impacto significativo na operação</t>
+  </si>
+  <si>
+    <t>Erro menor que não afeta a operação</t>
+  </si>
+  <si>
+    <t>O que é um sistema de tickets?</t>
+  </si>
+  <si>
+    <t>Ferramenta para gerenciar e rastrear solicitações de suporte</t>
+  </si>
+  <si>
+    <t>Método de recuperação de senha</t>
+  </si>
+  <si>
+    <t>Tecnologia da Informação</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>pergunta 1</t>
+  </si>
+  <si>
+    <t>reposta certa</t>
+  </si>
+  <si>
+    <t>resposta errada 1</t>
+  </si>
+  <si>
+    <t>resposta errada 2</t>
+  </si>
+  <si>
+    <t>resposta errada 3</t>
+  </si>
+  <si>
+    <t>B123456</t>
   </si>
 </sst>
 </file>
@@ -3137,10 +3842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A3FCA2-66BC-4607-AD30-1EED3AA5681B}">
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7133,6 +7838,1179 @@
         <v>905</v>
       </c>
     </row>
+    <row r="174" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="G174" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="G175" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="G176" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="G177" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G178" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="G179" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="G180" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="G181" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="G182" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="G183" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="G184" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="G185" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="G186" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="G187" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="G188" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="G189" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="G190" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="G191" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="G192" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G193" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G194" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G195" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G196" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G197" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G198" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G199" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="G200" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G201" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G202" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G203" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G204" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G205" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G206" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G207" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G208" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G209" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G210" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G211" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G212" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G213" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G214" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G215" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="G216" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G217" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G218" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G219" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G220" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G221" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G222" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G223" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>1140</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{B6A3FCA2-66BC-4607-AD30-1EED3AA5681B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G94">

--- a/perguntas.xlsx
+++ b/perguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\perguntas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D080EE25-0985-41CB-9D2E-7D89EBA05AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF261F4D-76A8-4E18-9176-BBD7CAE5152F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{42F07258-CA02-475C-954F-3907A6AF603F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1134">
   <si>
     <t>Empresa</t>
   </si>
@@ -3439,27 +3439,6 @@
   </si>
   <si>
     <t>Tecnologia da Informação</t>
-  </si>
-  <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>pergunta 1</t>
-  </si>
-  <si>
-    <t>reposta certa</t>
-  </si>
-  <si>
-    <t>resposta errada 1</t>
-  </si>
-  <si>
-    <t>resposta errada 2</t>
-  </si>
-  <si>
-    <t>resposta errada 3</t>
-  </si>
-  <si>
-    <t>B123456</t>
   </si>
 </sst>
 </file>
@@ -3842,10 +3821,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A3FCA2-66BC-4607-AD30-1EED3AA5681B}">
-  <dimension ref="A1:G224"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+      <selection activeCell="A224" sqref="A224:XFD224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8988,29 +8967,6 @@
         <v>50</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>1136</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>1138</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="G224" s="2" t="s">
-        <v>1140</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{B6A3FCA2-66BC-4607-AD30-1EED3AA5681B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G94">

--- a/perguntas.xlsx
+++ b/perguntas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\perguntas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF261F4D-76A8-4E18-9176-BBD7CAE5152F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E953870-3E64-46FA-B647-6ED80BE4C003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{42F07258-CA02-475C-954F-3907A6AF603F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="1306">
   <si>
     <t>Empresa</t>
   </si>
@@ -3439,6 +3439,522 @@
   </si>
   <si>
     <t>Tecnologia da Informação</t>
+  </si>
+  <si>
+    <t>O que significa ITIL?</t>
+  </si>
+  <si>
+    <t>Information Technology Infrastructure Library</t>
+  </si>
+  <si>
+    <t>Information Technology Integration Library</t>
+  </si>
+  <si>
+    <t>Information Technology Infrastructure Lab</t>
+  </si>
+  <si>
+    <t>Information Technology Infrastructure Layer</t>
+  </si>
+  <si>
+    <t>Qual é o objetivo principal da Gestão de Incidentes?</t>
+  </si>
+  <si>
+    <t>Restaurar o serviço normal o mais rápido possível</t>
+  </si>
+  <si>
+    <t>Identificar a causa raiz dos problemas</t>
+  </si>
+  <si>
+    <t>Gerenciar mudanças no sistema</t>
+  </si>
+  <si>
+    <t>Desenvolver novos serviços</t>
+  </si>
+  <si>
+    <t>Serviço de Localização de Ativos</t>
+  </si>
+  <si>
+    <t>Serviço de Lista de Atividades</t>
+  </si>
+  <si>
+    <t>Acordo de Limitação de Serviço</t>
+  </si>
+  <si>
+    <t>Qual é a função da Gestão de Problemas?</t>
+  </si>
+  <si>
+    <t>Identificar e eliminar a causa raiz dos incidentes</t>
+  </si>
+  <si>
+    <t>Gerenciar a implementação de mudanças</t>
+  </si>
+  <si>
+    <t>Monitorar o desempenho do serviço</t>
+  </si>
+  <si>
+    <t>Gerenciar o ciclo de vida dos ativos</t>
+  </si>
+  <si>
+    <t>O que é um CMDB?</t>
+  </si>
+  <si>
+    <t>Base de Dados de Gerenciamento de Configuração</t>
+  </si>
+  <si>
+    <t>Banco de Dados Central de Mídia</t>
+  </si>
+  <si>
+    <t>Banco de Dados de Cliente</t>
+  </si>
+  <si>
+    <t>Base de Dados de Medições</t>
+  </si>
+  <si>
+    <t>O que é um incidente?</t>
+  </si>
+  <si>
+    <t>Qualquer evento que não faça parte da operação padrão de um serviço</t>
+  </si>
+  <si>
+    <t>Uma solicitação de mudança</t>
+  </si>
+  <si>
+    <t>Uma atividade de manutenção preventiva</t>
+  </si>
+  <si>
+    <t>Uma auditoria de serviço</t>
+  </si>
+  <si>
+    <t>Qual é o propósito da Gestão de Mudanças?</t>
+  </si>
+  <si>
+    <t>Assegurar que mudanças sejam implementadas com o mínimo de interrupções</t>
+  </si>
+  <si>
+    <t>Monitorar incidentes</t>
+  </si>
+  <si>
+    <t>Identificar problemas</t>
+  </si>
+  <si>
+    <t>Gerenciar contratos de fornecedores</t>
+  </si>
+  <si>
+    <t>O que significa KPI?</t>
+  </si>
+  <si>
+    <t>Indicador Chave de Desempenho</t>
+  </si>
+  <si>
+    <t>Indicador Principal de Incidentes</t>
+  </si>
+  <si>
+    <t>Indicador de Problemas Críticos</t>
+  </si>
+  <si>
+    <t>Indicador de Prioridade Key</t>
+  </si>
+  <si>
+    <t>O que é uma solicitação de serviço?</t>
+  </si>
+  <si>
+    <t>Um pedido de informação, conselho ou um serviço padrão</t>
+  </si>
+  <si>
+    <t>Um incidente de alta prioridade</t>
+  </si>
+  <si>
+    <t>Uma mudança urgente</t>
+  </si>
+  <si>
+    <t>O que é a Gestão de Configuração?</t>
+  </si>
+  <si>
+    <t>Gerenciamento da integridade dos ativos e serviços</t>
+  </si>
+  <si>
+    <t>Gerenciamento de desempenho de serviços</t>
+  </si>
+  <si>
+    <t>Gerenciamento de contratos</t>
+  </si>
+  <si>
+    <t>Gerenciamento de mudanças</t>
+  </si>
+  <si>
+    <t>O que é um RACI?</t>
+  </si>
+  <si>
+    <t>Modelo de responsabilidade</t>
+  </si>
+  <si>
+    <t>Sistema de gestão de incidentes</t>
+  </si>
+  <si>
+    <t>Base de dados de configuração</t>
+  </si>
+  <si>
+    <t>Método de análise de causa raiz</t>
+  </si>
+  <si>
+    <t>O que é um CAB?</t>
+  </si>
+  <si>
+    <t>Comitê Consultivo de Mudanças</t>
+  </si>
+  <si>
+    <t>Central de Atendimento ao Cliente</t>
+  </si>
+  <si>
+    <t>Base de Dados Central</t>
+  </si>
+  <si>
+    <t>Comitê de Auditoria de Banco</t>
+  </si>
+  <si>
+    <t>Qual é a finalidade da Gestão de Disponibilidade?</t>
+  </si>
+  <si>
+    <t>Assegurar que os serviços atendam aos requisitos de disponibilidade</t>
+  </si>
+  <si>
+    <t>Gerenciar a capacidade dos serviços</t>
+  </si>
+  <si>
+    <t>Monitorar o desempenho do sistema</t>
+  </si>
+  <si>
+    <t>Implementar mudanças</t>
+  </si>
+  <si>
+    <t>O que é uma UO?</t>
+  </si>
+  <si>
+    <t>Unidade de Operação</t>
+  </si>
+  <si>
+    <t>Unidade de Organização</t>
+  </si>
+  <si>
+    <t>Unidade de Ocorrência</t>
+  </si>
+  <si>
+    <t>Unidade de Observação</t>
+  </si>
+  <si>
+    <t>O que é um PMO?</t>
+  </si>
+  <si>
+    <t>Escritório de Gerenciamento de Projetos</t>
+  </si>
+  <si>
+    <t>Escritório de Gestão de Problemas</t>
+  </si>
+  <si>
+    <t>Escritório de Melhoria de Processos</t>
+  </si>
+  <si>
+    <t>Escritório de Medição de Desempenho</t>
+  </si>
+  <si>
+    <t>O que é a Gestão de Capacidade?</t>
+  </si>
+  <si>
+    <t>Assegurar que a capacidade da TI atenda às necessidades atuais e futuras</t>
+  </si>
+  <si>
+    <t>Gerenciar a continuidade do serviço</t>
+  </si>
+  <si>
+    <t>Monitorar a disponibilidade de serviços</t>
+  </si>
+  <si>
+    <t>Qual é o objetivo da Gestão de Continuidade de Serviços de TI?</t>
+  </si>
+  <si>
+    <t>Garantir a continuidade dos serviços críticos</t>
+  </si>
+  <si>
+    <t>Monitorar a capacidade de serviços</t>
+  </si>
+  <si>
+    <t>Gerenciar a disponibilidade de serviços</t>
+  </si>
+  <si>
+    <t>Gerenciar mudanças</t>
+  </si>
+  <si>
+    <t>O que é um processo de ITSM?</t>
+  </si>
+  <si>
+    <t>Conjunto de atividades estruturadas para entregar um serviço</t>
+  </si>
+  <si>
+    <t>O que significa OLA?</t>
+  </si>
+  <si>
+    <t>Acordo de Nível Operacional</t>
+  </si>
+  <si>
+    <t>Acordo de Lista de Atividades</t>
+  </si>
+  <si>
+    <t>Acordo de Limitação Operacional</t>
+  </si>
+  <si>
+    <t>O que é um MTTF?</t>
+  </si>
+  <si>
+    <t>Tempo Médio entre Falhas</t>
+  </si>
+  <si>
+    <t>Tempo Médio para Recuperação</t>
+  </si>
+  <si>
+    <t>Tempo Máximo de Funcionamento</t>
+  </si>
+  <si>
+    <t>Tempo Médio para Resposta</t>
+  </si>
+  <si>
+    <t>Qual é a função da Gestão de Nível de Serviço?</t>
+  </si>
+  <si>
+    <t>Assegurar que os serviços sejam entregues conforme acordado</t>
+  </si>
+  <si>
+    <t>Monitorar a disponibilidade dos serviços</t>
+  </si>
+  <si>
+    <t>Gerenciar problemas</t>
+  </si>
+  <si>
+    <t>O que é a Gestão de Disponibilidade?</t>
+  </si>
+  <si>
+    <t>Monitorar a capacidade dos serviços</t>
+  </si>
+  <si>
+    <t>O que é a Gestão de Segurança da Informação?</t>
+  </si>
+  <si>
+    <t>Assegurar a confidencialidade, integridade e disponibilidade da informação</t>
+  </si>
+  <si>
+    <t>Qual é o objetivo da Gestão de Fornecedores?</t>
+  </si>
+  <si>
+    <t>Gerenciar contratos e performance dos fornecedores</t>
+  </si>
+  <si>
+    <t>O que é um Runbook?</t>
+  </si>
+  <si>
+    <t>Guia de procedimentos operacionais</t>
+  </si>
+  <si>
+    <t>Livro de Registro de Incidentes</t>
+  </si>
+  <si>
+    <t>Documento de Planejamento Estratégico</t>
+  </si>
+  <si>
+    <t>Manual de Segurança</t>
+  </si>
+  <si>
+    <t>Qual é o objetivo da Gestão de Incidentes?</t>
+  </si>
+  <si>
+    <t>O que é um KEDB?</t>
+  </si>
+  <si>
+    <t>Base de Dados de Erros Conhecidos</t>
+  </si>
+  <si>
+    <t>Base de Dados de Conhecimento</t>
+  </si>
+  <si>
+    <t>Banco de Dados de Configuração</t>
+  </si>
+  <si>
+    <t>Base de Dados de Eventos</t>
+  </si>
+  <si>
+    <t>O que é um PIR?</t>
+  </si>
+  <si>
+    <t>Revisão Pós-Implementação</t>
+  </si>
+  <si>
+    <t>Relatório de Incidentes Pendentes</t>
+  </si>
+  <si>
+    <t>Revisão de Planejamento de Implementação</t>
+  </si>
+  <si>
+    <t>Relatório de Integração de Processos</t>
+  </si>
+  <si>
+    <t>O que é a Gestão de Riscos?</t>
+  </si>
+  <si>
+    <t>Identificar, avaliar e controlar riscos</t>
+  </si>
+  <si>
+    <t>Implementar controles de segurança</t>
+  </si>
+  <si>
+    <t>O que é um BIA?</t>
+  </si>
+  <si>
+    <t>Análise de Impacto nos Negócios</t>
+  </si>
+  <si>
+    <t>Análise de Incidentes Atuais</t>
+  </si>
+  <si>
+    <t>Avaliação de Integridade dos Ativos</t>
+  </si>
+  <si>
+    <t>Análise de Investimentos Aprovados</t>
+  </si>
+  <si>
+    <t>O que é um RFP?</t>
+  </si>
+  <si>
+    <t>Solicitação de Proposta</t>
+  </si>
+  <si>
+    <t>Relatório de Performance Financeira</t>
+  </si>
+  <si>
+    <t>Revisão de Planejamento de Futuro</t>
+  </si>
+  <si>
+    <t>Solicitação de Problema de Funcionamento</t>
+  </si>
+  <si>
+    <t>O que é a Gestão de Continuidade de Serviços de TI?</t>
+  </si>
+  <si>
+    <t>Qual é o propósito da Gestão de Configuração?</t>
+  </si>
+  <si>
+    <t>O que é um CSI?</t>
+  </si>
+  <si>
+    <t>Melhoria Contínua de Serviço</t>
+  </si>
+  <si>
+    <t>Centro de Suporte ao Cliente</t>
+  </si>
+  <si>
+    <t>Indicador de Serviço Crítico</t>
+  </si>
+  <si>
+    <t>Inventário de Suporte de Configuração</t>
+  </si>
+  <si>
+    <t>Qual é o objetivo da Gestão de Mudanças?</t>
+  </si>
+  <si>
+    <t>O que é um SLM?</t>
+  </si>
+  <si>
+    <t>Gestão de Nível de Serviço</t>
+  </si>
+  <si>
+    <t>Sistema de Listagem de Mídia</t>
+  </si>
+  <si>
+    <t>Modelo de Serviço Local</t>
+  </si>
+  <si>
+    <t>Sistema de Licenciamento de Software</t>
+  </si>
+  <si>
+    <t>O que significa MTTR?</t>
+  </si>
+  <si>
+    <t>Tempo Máximo de Recuperação</t>
+  </si>
+  <si>
+    <t>O que é um SOP?</t>
+  </si>
+  <si>
+    <t>Procedimento Operacional Padrão</t>
+  </si>
+  <si>
+    <t>Serviço de Operações Planejadas</t>
+  </si>
+  <si>
+    <t>Plano de Serviço Otimizado</t>
+  </si>
+  <si>
+    <t>Procedimento de Segurança Operacional</t>
+  </si>
+  <si>
+    <t>Qual é a função da Gestão de Disponibilidade?</t>
+  </si>
+  <si>
+    <t>O que é um Change Advisory Board (CAB)?</t>
+  </si>
+  <si>
+    <t>O que é um RCA?</t>
+  </si>
+  <si>
+    <t>Análise de Causa Raiz</t>
+  </si>
+  <si>
+    <t>Avaliação de Controle de Riscos</t>
+  </si>
+  <si>
+    <t>Relatório de Incidentes Críticos</t>
+  </si>
+  <si>
+    <t>Análise de Configuração de Rede</t>
+  </si>
+  <si>
+    <t>Qual é o objetivo da Gestão de Problemas?</t>
+  </si>
+  <si>
+    <t>O que é um KPI?</t>
+  </si>
+  <si>
+    <t>O que é um ITSM?</t>
+  </si>
+  <si>
+    <t>Gestão de Serviços de TI</t>
+  </si>
+  <si>
+    <t>Sistema de Gestão de Infraestrutura</t>
+  </si>
+  <si>
+    <t>Modelo de Serviços de TI</t>
+  </si>
+  <si>
+    <t>Monitoramento de Serviços de TI</t>
+  </si>
+  <si>
+    <t>Qual é o objetivo da Gestão de Nível de Serviço?</t>
+  </si>
+  <si>
+    <t>O que é um Service Desk?</t>
+  </si>
+  <si>
+    <t>Ponto único de contato entre o provedor de serviços e os usuários</t>
+  </si>
+  <si>
+    <t>Sistema de gerenciamento de ativos</t>
+  </si>
+  <si>
+    <t>Ferramenta de monitoramento de redes</t>
+  </si>
+  <si>
+    <t>Plataforma de integração de sistemas</t>
+  </si>
+  <si>
+    <t>Gestão e Supervisão</t>
   </si>
 </sst>
 </file>
@@ -3821,10 +4337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A3FCA2-66BC-4607-AD30-1EED3AA5681B}">
-  <dimension ref="A1:G223"/>
+  <dimension ref="A1:G273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
-      <selection activeCell="A224" sqref="A224:XFD224"/>
+    <sheetView tabSelected="1" topLeftCell="A222" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G224" sqref="G224:G273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8967,6 +9483,1056 @@
         <v>50</v>
       </c>
     </row>
+    <row r="224" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="G224" s="2"/>
+    </row>
+    <row r="225" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G225" s="2"/>
+    </row>
+    <row r="226" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G226" s="2"/>
+    </row>
+    <row r="227" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F227" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G227" s="2"/>
+    </row>
+    <row r="228" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G228" s="2"/>
+    </row>
+    <row r="229" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F229" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G229" s="2"/>
+    </row>
+    <row r="230" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F230" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G230" s="2"/>
+    </row>
+    <row r="231" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F231" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G231" s="2"/>
+    </row>
+    <row r="232" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F232" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G232" s="2"/>
+    </row>
+    <row r="233" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F233" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G233" s="2"/>
+    </row>
+    <row r="234" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F234" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G234" s="2"/>
+    </row>
+    <row r="235" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G235" s="2"/>
+    </row>
+    <row r="236" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F236" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G236" s="2"/>
+    </row>
+    <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G237" s="2"/>
+    </row>
+    <row r="238" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G238" s="2"/>
+    </row>
+    <row r="239" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G239" s="2"/>
+    </row>
+    <row r="240" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G240" s="2"/>
+    </row>
+    <row r="241" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G241" s="2"/>
+    </row>
+    <row r="242" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G242" s="2"/>
+    </row>
+    <row r="243" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G243" s="2"/>
+    </row>
+    <row r="244" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G244" s="2"/>
+    </row>
+    <row r="245" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G245" s="2"/>
+    </row>
+    <row r="246" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G246" s="2"/>
+    </row>
+    <row r="247" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G247" s="2"/>
+    </row>
+    <row r="248" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G248" s="2"/>
+    </row>
+    <row r="249" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G249" s="2"/>
+    </row>
+    <row r="250" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G250" s="2"/>
+    </row>
+    <row r="251" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G251" s="2"/>
+    </row>
+    <row r="252" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G252" s="2"/>
+    </row>
+    <row r="253" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G253" s="2"/>
+    </row>
+    <row r="254" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G254" s="2"/>
+    </row>
+    <row r="255" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G255" s="2"/>
+    </row>
+    <row r="256" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G256" s="2"/>
+    </row>
+    <row r="257" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G257" s="2"/>
+    </row>
+    <row r="258" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G258" s="2"/>
+    </row>
+    <row r="259" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G259" s="2"/>
+    </row>
+    <row r="260" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G260" s="2"/>
+    </row>
+    <row r="261" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G261" s="2"/>
+    </row>
+    <row r="262" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G262" s="2"/>
+    </row>
+    <row r="263" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G263" s="2"/>
+    </row>
+    <row r="264" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G264" s="2"/>
+    </row>
+    <row r="265" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G265" s="2"/>
+    </row>
+    <row r="266" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G266" s="2"/>
+    </row>
+    <row r="267" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G267" s="2"/>
+    </row>
+    <row r="268" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G268" s="2"/>
+    </row>
+    <row r="269" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="G269" s="2"/>
+    </row>
+    <row r="270" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G270" s="2"/>
+    </row>
+    <row r="271" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="G271" s="2"/>
+    </row>
+    <row r="272" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G272" s="2"/>
+    </row>
+    <row r="273" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G273" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{B6A3FCA2-66BC-4607-AD30-1EED3AA5681B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G94">

--- a/perguntas.xlsx
+++ b/perguntas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\perguntas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E53FC94-D6DC-45E8-98EE-93D3D997B83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{027A3518-3D50-4DAC-9D09-9FED4E330F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{42F07258-CA02-475C-954F-3907A6AF603F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{42F07258-CA02-475C-954F-3907A6AF603F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="1347">
   <si>
     <t>Empresa</t>
   </si>
@@ -3442,6 +3442,642 @@
   </si>
   <si>
     <t>KB132456</t>
+  </si>
+  <si>
+    <t>What is the synonym of "happy"?</t>
+  </si>
+  <si>
+    <t>Joyful</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>Angry</t>
+  </si>
+  <si>
+    <t>Confused</t>
+  </si>
+  <si>
+    <t>What is the antonym of "cold"?</t>
+  </si>
+  <si>
+    <t>Hot</t>
+  </si>
+  <si>
+    <t>Cool</t>
+  </si>
+  <si>
+    <t>Warm</t>
+  </si>
+  <si>
+    <t>Freezing</t>
+  </si>
+  <si>
+    <t>Choose the correct form of the verb: "She ____ to the store."</t>
+  </si>
+  <si>
+    <t>Goes</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>Going</t>
+  </si>
+  <si>
+    <t>Went</t>
+  </si>
+  <si>
+    <t>What is the plural of "mouse"?</t>
+  </si>
+  <si>
+    <t>Mice</t>
+  </si>
+  <si>
+    <t>Mouses</t>
+  </si>
+  <si>
+    <t>Mices</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>What is the past tense of "run"?</t>
+  </si>
+  <si>
+    <t>Ran</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>Runs</t>
+  </si>
+  <si>
+    <t>Runned</t>
+  </si>
+  <si>
+    <t>What is the correct article: "___ apple a day keeps the doctor away."</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>The</t>
+  </si>
+  <si>
+    <t>Some</t>
+  </si>
+  <si>
+    <t>What is the superlative form of "good"?</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Better</t>
+  </si>
+  <si>
+    <t>Gooder</t>
+  </si>
+  <si>
+    <t>Most Good</t>
+  </si>
+  <si>
+    <t>Which is a noun?</t>
+  </si>
+  <si>
+    <t>Dog</t>
+  </si>
+  <si>
+    <t>Run</t>
+  </si>
+  <si>
+    <t>Quickly</t>
+  </si>
+  <si>
+    <t>Beautiful</t>
+  </si>
+  <si>
+    <t>What is the correct spelling?</t>
+  </si>
+  <si>
+    <t>Receive</t>
+  </si>
+  <si>
+    <t>Recieve</t>
+  </si>
+  <si>
+    <t>Recive</t>
+  </si>
+  <si>
+    <t>Receeve</t>
+  </si>
+  <si>
+    <t>What is the opposite of "expensive"?</t>
+  </si>
+  <si>
+    <t>Cheap</t>
+  </si>
+  <si>
+    <t>Costly</t>
+  </si>
+  <si>
+    <t>Pricey</t>
+  </si>
+  <si>
+    <t>Valuable</t>
+  </si>
+  <si>
+    <t>What is the present participle of "swim"?</t>
+  </si>
+  <si>
+    <t>Swimming</t>
+  </si>
+  <si>
+    <t>Swiming</t>
+  </si>
+  <si>
+    <t>Swam</t>
+  </si>
+  <si>
+    <t>Swum</t>
+  </si>
+  <si>
+    <t>Choose the correct word: "They ___ going to the park."</t>
+  </si>
+  <si>
+    <t>Are</t>
+  </si>
+  <si>
+    <t>Is</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>Be</t>
+  </si>
+  <si>
+    <t>What is the synonym of "big"?</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Tiny</t>
+  </si>
+  <si>
+    <t>Thin</t>
+  </si>
+  <si>
+    <t>What is the past tense of "eat"?</t>
+  </si>
+  <si>
+    <t>Ate</t>
+  </si>
+  <si>
+    <t>Eated</t>
+  </si>
+  <si>
+    <t>Eaten</t>
+  </si>
+  <si>
+    <t>Eats</t>
+  </si>
+  <si>
+    <t>What is the correct preposition: "He is interested ___ music."</t>
+  </si>
+  <si>
+    <t>In</t>
+  </si>
+  <si>
+    <t>On</t>
+  </si>
+  <si>
+    <t>At</t>
+  </si>
+  <si>
+    <t>Of</t>
+  </si>
+  <si>
+    <t>What is the plural of "child"?</t>
+  </si>
+  <si>
+    <t>Children</t>
+  </si>
+  <si>
+    <t>Childs</t>
+  </si>
+  <si>
+    <t>Childrens</t>
+  </si>
+  <si>
+    <t>Childes</t>
+  </si>
+  <si>
+    <t>Choose the correct form of the verb: "They ____ a movie."</t>
+  </si>
+  <si>
+    <t>Watched</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>Watching</t>
+  </si>
+  <si>
+    <t>Watches</t>
+  </si>
+  <si>
+    <t>What is the antonym of "short"?</t>
+  </si>
+  <si>
+    <t>Tall</t>
+  </si>
+  <si>
+    <t>Wide</t>
+  </si>
+  <si>
+    <t>Beatiful</t>
+  </si>
+  <si>
+    <t>Beutiful</t>
+  </si>
+  <si>
+    <t>Beautifull</t>
+  </si>
+  <si>
+    <t>What is the synonym of "angry"?</t>
+  </si>
+  <si>
+    <t>Mad</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Calm</t>
+  </si>
+  <si>
+    <t>Peaceful</t>
+  </si>
+  <si>
+    <t>What is the correct form of the verb: "She ____ the book."</t>
+  </si>
+  <si>
+    <t>Reads</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>What is the past tense of "write"?</t>
+  </si>
+  <si>
+    <t>Wrote</t>
+  </si>
+  <si>
+    <t>Writes</t>
+  </si>
+  <si>
+    <t>Writing</t>
+  </si>
+  <si>
+    <t>Writed</t>
+  </si>
+  <si>
+    <t>What is the correct preposition: "The cat is ___ the table."</t>
+  </si>
+  <si>
+    <t>By</t>
+  </si>
+  <si>
+    <t>What is the opposite of "strong"?</t>
+  </si>
+  <si>
+    <t>Weak</t>
+  </si>
+  <si>
+    <t>Powerful</t>
+  </si>
+  <si>
+    <t>Tough</t>
+  </si>
+  <si>
+    <t>Firm</t>
+  </si>
+  <si>
+    <t>What is the synonym of "quickly"?</t>
+  </si>
+  <si>
+    <t>Rapidly</t>
+  </si>
+  <si>
+    <t>Slowly</t>
+  </si>
+  <si>
+    <t>Lazily</t>
+  </si>
+  <si>
+    <t>Carefully</t>
+  </si>
+  <si>
+    <t>What is the plural of "foot"?</t>
+  </si>
+  <si>
+    <t>Feet</t>
+  </si>
+  <si>
+    <t>Foots</t>
+  </si>
+  <si>
+    <t>Feets</t>
+  </si>
+  <si>
+    <t>Footes</t>
+  </si>
+  <si>
+    <t>Choose the correct word: "He is taller ___ his brother."</t>
+  </si>
+  <si>
+    <t>Than</t>
+  </si>
+  <si>
+    <t>Then</t>
+  </si>
+  <si>
+    <t>That</t>
+  </si>
+  <si>
+    <t>Them</t>
+  </si>
+  <si>
+    <t>What is the past tense of "see"?</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Seen</t>
+  </si>
+  <si>
+    <t>Sees</t>
+  </si>
+  <si>
+    <t>Seeing</t>
+  </si>
+  <si>
+    <t>What is the correct article: "___ cat is sleeping."</t>
+  </si>
+  <si>
+    <t>What is the synonym of "small"?</t>
+  </si>
+  <si>
+    <t>Huge</t>
+  </si>
+  <si>
+    <t>Massive</t>
+  </si>
+  <si>
+    <t>What is the correct form of the verb: "They ____ to school."</t>
+  </si>
+  <si>
+    <t>Gone</t>
+  </si>
+  <si>
+    <t>What is the antonym of "dark"?</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Dim</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Necessary</t>
+  </si>
+  <si>
+    <t>Necesary</t>
+  </si>
+  <si>
+    <t>Neccesary</t>
+  </si>
+  <si>
+    <t>Neccessary</t>
+  </si>
+  <si>
+    <t>What is the plural of "tooth"?</t>
+  </si>
+  <si>
+    <t>Teeth</t>
+  </si>
+  <si>
+    <t>Tooths</t>
+  </si>
+  <si>
+    <t>Teeths</t>
+  </si>
+  <si>
+    <t>Toothes</t>
+  </si>
+  <si>
+    <t>What is the synonym of "intelligent"?</t>
+  </si>
+  <si>
+    <t>Smart</t>
+  </si>
+  <si>
+    <t>Dumb</t>
+  </si>
+  <si>
+    <t>Foolish</t>
+  </si>
+  <si>
+    <t>Silly</t>
+  </si>
+  <si>
+    <t>What is the past tense of "drink"?</t>
+  </si>
+  <si>
+    <t>Drank</t>
+  </si>
+  <si>
+    <t>Drinked</t>
+  </si>
+  <si>
+    <t>Drunk</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>What is the opposite of "early"?</t>
+  </si>
+  <si>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Quick</t>
+  </si>
+  <si>
+    <t>Fast</t>
+  </si>
+  <si>
+    <t>Soon</t>
+  </si>
+  <si>
+    <t>What is the correct form of the verb: "I ____ to the store."</t>
+  </si>
+  <si>
+    <t>What is the plural of "person"?</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Persons</t>
+  </si>
+  <si>
+    <t>Peoples</t>
+  </si>
+  <si>
+    <t>Persones</t>
+  </si>
+  <si>
+    <t>What is the past tense of "think"?</t>
+  </si>
+  <si>
+    <t>Thought</t>
+  </si>
+  <si>
+    <t>Thinked</t>
+  </si>
+  <si>
+    <t>Thinks</t>
+  </si>
+  <si>
+    <t>Thinking</t>
+  </si>
+  <si>
+    <t>Choose the correct word: "It is colder ___ yesterday."</t>
+  </si>
+  <si>
+    <t>What is the correct preposition: "She is good ___ math."</t>
+  </si>
+  <si>
+    <t>What is the antonym of "clean"?</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>Tidy</t>
+  </si>
+  <si>
+    <t>Spotless</t>
+  </si>
+  <si>
+    <t>Neat</t>
+  </si>
+  <si>
+    <t>What is the synonym of "fast"?</t>
+  </si>
+  <si>
+    <t>Slow</t>
+  </si>
+  <si>
+    <t>Steady</t>
+  </si>
+  <si>
+    <t>Sluggish</t>
+  </si>
+  <si>
+    <t>What is the past tense of "speak"?</t>
+  </si>
+  <si>
+    <t>Spoke</t>
+  </si>
+  <si>
+    <t>Speaking</t>
+  </si>
+  <si>
+    <t>Speaked</t>
+  </si>
+  <si>
+    <t>Speaks</t>
+  </si>
+  <si>
+    <t>What is the plural of "fish"?</t>
+  </si>
+  <si>
+    <t>Fish</t>
+  </si>
+  <si>
+    <t>Fishes</t>
+  </si>
+  <si>
+    <t>Fishs</t>
+  </si>
+  <si>
+    <t>What is the correct article: "___ hour has passed."</t>
+  </si>
+  <si>
+    <t>What is the synonym of "difficult"?</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Smooth</t>
+  </si>
+  <si>
+    <t>What is the correct form of the verb: "They ____ playing."</t>
+  </si>
+  <si>
+    <t>What is the antonym of "old"?</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Aged</t>
+  </si>
+  <si>
+    <t>Ancient</t>
+  </si>
+  <si>
+    <t>Elderly</t>
+  </si>
+  <si>
+    <t>Inglês</t>
   </si>
 </sst>
 </file>
@@ -3528,9 +4164,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3568,7 +4204,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3674,7 +4310,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3816,7 +4452,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3824,10 +4460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A3FCA2-66BC-4607-AD30-1EED3AA5681B}">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G279" sqref="G279"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I276" sqref="I276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10120,6 +10756,1156 @@
         <v>0</v>
       </c>
     </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G274" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="G275" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G276" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G277" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G278" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G279" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G280" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F281" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G281" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F282" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G282" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="G283" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G284" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G285" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G286" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G287" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G288" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G289" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G290" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G291" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G292" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G293" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G294" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F295" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G295" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F296" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G296" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F297" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G297" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G298" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F299" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G299" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G300" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G301" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F302" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G302" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G303" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G304" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G305" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G306" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="G307" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G308" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="G309" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G310" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G311" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G312" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G313" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G314" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="G315" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G316" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="G317" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G318" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G319" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G320" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G321" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G322" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="G323" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G1" xr:uid="{B6A3FCA2-66BC-4607-AD30-1EED3AA5681B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G94">
